--- a/data-migration/xlsx_1900-/1915_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1915_Sommer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85683CA2-5CA4-40C1-9BD4-7DA657923BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AD952F-639A-49B9-8197-7127D66456A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17880" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="1347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="1348">
   <si>
     <t>Sommer</t>
   </si>
@@ -4061,6 +4061,9 @@
   </si>
   <si>
     <t>vakant</t>
+  </si>
+  <si>
+    <t>Prof</t>
   </si>
 </sst>
 </file>
@@ -4404,8 +4407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C385" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="J398" sqref="J398"/>
+    <sheetView tabSelected="1" topLeftCell="C162" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H187" sqref="H187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9119,7 +9122,7 @@
         <v>1226</v>
       </c>
       <c r="I178" t="s">
-        <v>1333</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -9145,7 +9148,7 @@
         <v>1226</v>
       </c>
       <c r="I179" t="s">
-        <v>1333</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -9171,7 +9174,7 @@
         <v>1226</v>
       </c>
       <c r="I180" t="s">
-        <v>1333</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -9289,7 +9292,7 @@
         <v>1310</v>
       </c>
       <c r="I185" t="s">
-        <v>1333</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -9315,7 +9318,7 @@
         <v>1310</v>
       </c>
       <c r="I186" t="s">
-        <v>1333</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -9341,7 +9344,7 @@
         <v>1310</v>
       </c>
       <c r="I187" t="s">
-        <v>1333</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -9367,7 +9370,7 @@
         <v>1310</v>
       </c>
       <c r="I188" t="s">
-        <v>1333</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">

--- a/data-migration/xlsx_1900-/1915_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1915_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AD952F-639A-49B9-8197-7127D66456A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E13E3F-2AA5-46B1-AA47-E6AE493A86BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3904,9 +3904,6 @@
     <t>meyer_a</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>huber_m</t>
   </si>
   <si>
@@ -4009,9 +4006,6 @@
     <t>silberschmidt _w</t>
   </si>
   <si>
-    <t>nager _fr</t>
-  </si>
-  <si>
     <t>strohl_j</t>
   </si>
   <si>
@@ -4064,6 +4058,12 @@
   </si>
   <si>
     <t>Prof</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
+  </si>
+  <si>
+    <t>nager_fr</t>
   </si>
 </sst>
 </file>
@@ -4408,18 +4408,18 @@
   <dimension ref="A1:L433"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C162" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H187" sqref="H187"/>
+      <selection activeCell="H176" sqref="H176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="36.42578125" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1915</v>
       </c>
@@ -4442,13 +4442,13 @@
         <v>1177</v>
       </c>
       <c r="I1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J1" t="s">
         <v>1333</v>
       </c>
-      <c r="J1" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1915</v>
       </c>
@@ -4471,10 +4471,10 @@
         <v>1178</v>
       </c>
       <c r="I2" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1915</v>
       </c>
@@ -4494,13 +4494,13 @@
         <v>869</v>
       </c>
       <c r="H3" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I3" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1915</v>
       </c>
@@ -4520,13 +4520,13 @@
         <v>870</v>
       </c>
       <c r="H4" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I4" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1915</v>
       </c>
@@ -4546,13 +4546,13 @@
         <v>871</v>
       </c>
       <c r="H5" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="I5" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1915</v>
       </c>
@@ -4575,10 +4575,10 @@
         <v>1178</v>
       </c>
       <c r="I6" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1915</v>
       </c>
@@ -4601,10 +4601,10 @@
         <v>1293</v>
       </c>
       <c r="I7" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1915</v>
       </c>
@@ -4627,10 +4627,10 @@
         <v>1180</v>
       </c>
       <c r="I8" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1915</v>
       </c>
@@ -4653,10 +4653,10 @@
         <v>1180</v>
       </c>
       <c r="I9" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1915</v>
       </c>
@@ -4679,10 +4679,10 @@
         <v>1181</v>
       </c>
       <c r="I10" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1915</v>
       </c>
@@ -4705,10 +4705,10 @@
         <v>1180</v>
       </c>
       <c r="I11" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1915</v>
       </c>
@@ -4731,10 +4731,10 @@
         <v>1181</v>
       </c>
       <c r="I12" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1915</v>
       </c>
@@ -4757,10 +4757,10 @@
         <v>1179</v>
       </c>
       <c r="I13" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1915</v>
       </c>
@@ -4780,13 +4780,13 @@
         <v>880</v>
       </c>
       <c r="H14" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I14" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1915</v>
       </c>
@@ -4809,10 +4809,10 @@
         <v>1179</v>
       </c>
       <c r="I15" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1915</v>
       </c>
@@ -4835,10 +4835,10 @@
         <v>1179</v>
       </c>
       <c r="I16" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1915</v>
       </c>
@@ -4861,10 +4861,10 @@
         <v>1293</v>
       </c>
       <c r="I17" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1915</v>
       </c>
@@ -4887,13 +4887,13 @@
         <v>1177</v>
       </c>
       <c r="I18" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J18" t="s">
         <v>1333</v>
       </c>
-      <c r="J18" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1915</v>
       </c>
@@ -4916,10 +4916,10 @@
         <v>1293</v>
       </c>
       <c r="I19" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1915</v>
       </c>
@@ -4942,13 +4942,13 @@
         <v>1177</v>
       </c>
       <c r="I20" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J20" t="s">
         <v>1333</v>
       </c>
-      <c r="J20" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1915</v>
       </c>
@@ -4971,10 +4971,10 @@
         <v>1178</v>
       </c>
       <c r="I21" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1915</v>
       </c>
@@ -4997,10 +4997,10 @@
         <v>1180</v>
       </c>
       <c r="I22" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1915</v>
       </c>
@@ -5023,10 +5023,10 @@
         <v>1293</v>
       </c>
       <c r="I23" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1915</v>
       </c>
@@ -5049,10 +5049,10 @@
         <v>1179</v>
       </c>
       <c r="I24" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1915</v>
       </c>
@@ -5072,13 +5072,13 @@
         <v>890</v>
       </c>
       <c r="H25" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="I25" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1915</v>
       </c>
@@ -5101,10 +5101,10 @@
         <v>1293</v>
       </c>
       <c r="I26" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1915</v>
       </c>
@@ -5127,13 +5127,13 @@
         <v>1177</v>
       </c>
       <c r="I27" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J27" t="s">
         <v>1333</v>
       </c>
-      <c r="J27" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1915</v>
       </c>
@@ -5156,10 +5156,10 @@
         <v>1182</v>
       </c>
       <c r="I28" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1915</v>
       </c>
@@ -5182,10 +5182,10 @@
         <v>1183</v>
       </c>
       <c r="I29" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1915</v>
       </c>
@@ -5208,10 +5208,10 @@
         <v>1183</v>
       </c>
       <c r="I30" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1915</v>
       </c>
@@ -5234,10 +5234,10 @@
         <v>1184</v>
       </c>
       <c r="I31" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1915</v>
       </c>
@@ -5260,10 +5260,10 @@
         <v>1182</v>
       </c>
       <c r="I32" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1915</v>
       </c>
@@ -5286,10 +5286,10 @@
         <v>1185</v>
       </c>
       <c r="I33" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1915</v>
       </c>
@@ -5312,10 +5312,10 @@
         <v>1185</v>
       </c>
       <c r="I34" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1915</v>
       </c>
@@ -5335,13 +5335,13 @@
         <v>899</v>
       </c>
       <c r="H35" t="s">
-        <v>1294</v>
+        <v>1346</v>
       </c>
       <c r="I35" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1915</v>
       </c>
@@ -5361,13 +5361,13 @@
         <v>900</v>
       </c>
       <c r="H36" t="s">
-        <v>1294</v>
+        <v>1346</v>
       </c>
       <c r="I36" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1915</v>
       </c>
@@ -5390,10 +5390,10 @@
         <v>1186</v>
       </c>
       <c r="I37" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1915</v>
       </c>
@@ -5416,10 +5416,10 @@
         <v>1187</v>
       </c>
       <c r="I38" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1915</v>
       </c>
@@ -5442,10 +5442,10 @@
         <v>1188</v>
       </c>
       <c r="I39" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1915</v>
       </c>
@@ -5468,10 +5468,10 @@
         <v>1187</v>
       </c>
       <c r="I40" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1915</v>
       </c>
@@ -5494,10 +5494,10 @@
         <v>1187</v>
       </c>
       <c r="I41" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1915</v>
       </c>
@@ -5520,10 +5520,10 @@
         <v>1188</v>
       </c>
       <c r="I42" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1915</v>
       </c>
@@ -5543,13 +5543,13 @@
         <v>907</v>
       </c>
       <c r="H43" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I43" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1915</v>
       </c>
@@ -5572,10 +5572,10 @@
         <v>1189</v>
       </c>
       <c r="I44" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1915</v>
       </c>
@@ -5598,10 +5598,10 @@
         <v>1189</v>
       </c>
       <c r="I45" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1915</v>
       </c>
@@ -5621,13 +5621,13 @@
         <v>910</v>
       </c>
       <c r="H46" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="I46" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1915</v>
       </c>
@@ -5650,10 +5650,10 @@
         <v>1190</v>
       </c>
       <c r="I47" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1915</v>
       </c>
@@ -5676,10 +5676,10 @@
         <v>1191</v>
       </c>
       <c r="I48" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1915</v>
       </c>
@@ -5702,10 +5702,10 @@
         <v>1191</v>
       </c>
       <c r="I49" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1915</v>
       </c>
@@ -5728,10 +5728,10 @@
         <v>1192</v>
       </c>
       <c r="I50" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1915</v>
       </c>
@@ -5754,10 +5754,10 @@
         <v>1192</v>
       </c>
       <c r="I51" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1915</v>
       </c>
@@ -5777,13 +5777,13 @@
         <v>916</v>
       </c>
       <c r="H52" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I52" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1915</v>
       </c>
@@ -5803,13 +5803,13 @@
         <v>917</v>
       </c>
       <c r="H53" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="I53" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1915</v>
       </c>
@@ -5829,16 +5829,16 @@
         <v>918</v>
       </c>
       <c r="H54" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="I54" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J54" t="s">
         <v>1333</v>
       </c>
-      <c r="J54" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1915</v>
       </c>
@@ -5858,16 +5858,16 @@
         <v>919</v>
       </c>
       <c r="H55" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="I55" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J55" t="s">
         <v>1333</v>
       </c>
-      <c r="J55" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1915</v>
       </c>
@@ -5887,16 +5887,16 @@
         <v>920</v>
       </c>
       <c r="H56" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="I56" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J56" t="s">
         <v>1333</v>
       </c>
-      <c r="J56" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1915</v>
       </c>
@@ -5919,10 +5919,10 @@
         <v>1196</v>
       </c>
       <c r="I57" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1915</v>
       </c>
@@ -5945,10 +5945,10 @@
         <v>1196</v>
       </c>
       <c r="I58" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1915</v>
       </c>
@@ -5971,10 +5971,10 @@
         <v>1197</v>
       </c>
       <c r="I59" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1915</v>
       </c>
@@ -5994,13 +5994,13 @@
         <v>875</v>
       </c>
       <c r="H60" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="I60" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1915</v>
       </c>
@@ -6023,10 +6023,10 @@
         <v>1182</v>
       </c>
       <c r="I61" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1915</v>
       </c>
@@ -6046,13 +6046,13 @@
         <v>925</v>
       </c>
       <c r="H62" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="I62" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1915</v>
       </c>
@@ -6075,10 +6075,10 @@
         <v>1187</v>
       </c>
       <c r="I63" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1915</v>
       </c>
@@ -6101,10 +6101,10 @@
         <v>1189</v>
       </c>
       <c r="I64" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1915</v>
       </c>
@@ -6127,10 +6127,10 @@
         <v>1191</v>
       </c>
       <c r="I65" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1915</v>
       </c>
@@ -6153,10 +6153,10 @@
         <v>1191</v>
       </c>
       <c r="I66" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1915</v>
       </c>
@@ -6176,13 +6176,13 @@
         <v>923</v>
       </c>
       <c r="H67" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="I67" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1915</v>
       </c>
@@ -6202,13 +6202,13 @@
         <v>928</v>
       </c>
       <c r="H68" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="I68" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1915</v>
       </c>
@@ -6228,16 +6228,16 @@
         <v>929</v>
       </c>
       <c r="H69" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="I69" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J69" t="s">
         <v>1333</v>
       </c>
-      <c r="J69" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1915</v>
       </c>
@@ -6260,10 +6260,10 @@
         <v>1196</v>
       </c>
       <c r="I70" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1915</v>
       </c>
@@ -6286,10 +6286,10 @@
         <v>1196</v>
       </c>
       <c r="I71" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1915</v>
       </c>
@@ -6312,10 +6312,10 @@
         <v>1198</v>
       </c>
       <c r="I72" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1915</v>
       </c>
@@ -6341,10 +6341,10 @@
         <v>1199</v>
       </c>
       <c r="I73" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1915</v>
       </c>
@@ -6370,10 +6370,10 @@
         <v>1199</v>
       </c>
       <c r="I74" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1915</v>
       </c>
@@ -6396,10 +6396,10 @@
         <v>1199</v>
       </c>
       <c r="I75" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1915</v>
       </c>
@@ -6422,10 +6422,10 @@
         <v>1199</v>
       </c>
       <c r="I76" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1915</v>
       </c>
@@ -6448,10 +6448,10 @@
         <v>1199</v>
       </c>
       <c r="I77" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1915</v>
       </c>
@@ -6477,10 +6477,10 @@
         <v>1200</v>
       </c>
       <c r="I78" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1915</v>
       </c>
@@ -6506,10 +6506,10 @@
         <v>1200</v>
       </c>
       <c r="I79" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1915</v>
       </c>
@@ -6532,10 +6532,10 @@
         <v>1200</v>
       </c>
       <c r="I80" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1915</v>
       </c>
@@ -6558,10 +6558,10 @@
         <v>1201</v>
       </c>
       <c r="I81" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1915</v>
       </c>
@@ -6581,13 +6581,13 @@
         <v>942</v>
       </c>
       <c r="H82" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I82" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1915</v>
       </c>
@@ -6607,13 +6607,13 @@
         <v>937</v>
       </c>
       <c r="H83" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I83" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1915</v>
       </c>
@@ -6636,10 +6636,10 @@
         <v>1202</v>
       </c>
       <c r="I84" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1915</v>
       </c>
@@ -6662,10 +6662,10 @@
         <v>1202</v>
       </c>
       <c r="I85" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1915</v>
       </c>
@@ -6688,10 +6688,10 @@
         <v>1203</v>
       </c>
       <c r="I86" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1915</v>
       </c>
@@ -6714,10 +6714,10 @@
         <v>1203</v>
       </c>
       <c r="I87" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1915</v>
       </c>
@@ -6740,10 +6740,10 @@
         <v>1203</v>
       </c>
       <c r="I88" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1915</v>
       </c>
@@ -6766,10 +6766,10 @@
         <v>1203</v>
       </c>
       <c r="I89" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1915</v>
       </c>
@@ -6792,10 +6792,10 @@
         <v>1203</v>
       </c>
       <c r="I90" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1915</v>
       </c>
@@ -6818,10 +6818,10 @@
         <v>1203</v>
       </c>
       <c r="I91" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1915</v>
       </c>
@@ -6844,10 +6844,10 @@
         <v>1203</v>
       </c>
       <c r="I92" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1915</v>
       </c>
@@ -6870,10 +6870,10 @@
         <v>1203</v>
       </c>
       <c r="I93" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1915</v>
       </c>
@@ -6896,10 +6896,10 @@
         <v>1203</v>
       </c>
       <c r="I94" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1915</v>
       </c>
@@ -6922,13 +6922,13 @@
         <v>1204</v>
       </c>
       <c r="I95" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J95" t="s">
         <v>1333</v>
       </c>
-      <c r="J95" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1915</v>
       </c>
@@ -6951,13 +6951,13 @@
         <v>1204</v>
       </c>
       <c r="I96" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J96" t="s">
         <v>1333</v>
       </c>
-      <c r="J96" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1915</v>
       </c>
@@ -6980,13 +6980,13 @@
         <v>1204</v>
       </c>
       <c r="I97" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J97" t="s">
         <v>1333</v>
       </c>
-      <c r="J97" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1915</v>
       </c>
@@ -7009,13 +7009,13 @@
         <v>1204</v>
       </c>
       <c r="I98" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J98" t="s">
         <v>1333</v>
       </c>
-      <c r="J98" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1915</v>
       </c>
@@ -7038,13 +7038,13 @@
         <v>1204</v>
       </c>
       <c r="I99" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J99" t="s">
         <v>1333</v>
       </c>
-      <c r="J99" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1915</v>
       </c>
@@ -7067,10 +7067,10 @@
         <v>1205</v>
       </c>
       <c r="I100" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1915</v>
       </c>
@@ -7090,16 +7090,16 @@
         <v>954</v>
       </c>
       <c r="H101" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="I101" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="J101" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1915</v>
       </c>
@@ -7119,16 +7119,16 @@
         <v>955</v>
       </c>
       <c r="H102" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="I102" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="J102" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1915</v>
       </c>
@@ -7148,16 +7148,16 @@
         <v>956</v>
       </c>
       <c r="H103" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="I103" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="J103" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1915</v>
       </c>
@@ -7180,10 +7180,10 @@
         <v>1206</v>
       </c>
       <c r="I104" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1915</v>
       </c>
@@ -7206,10 +7206,10 @@
         <v>1206</v>
       </c>
       <c r="I105" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1915</v>
       </c>
@@ -7232,10 +7232,10 @@
         <v>1206</v>
       </c>
       <c r="I106" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1915</v>
       </c>
@@ -7258,10 +7258,10 @@
         <v>1206</v>
       </c>
       <c r="I107" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1915</v>
       </c>
@@ -7284,10 +7284,10 @@
         <v>1207</v>
       </c>
       <c r="I108" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1915</v>
       </c>
@@ -7310,10 +7310,10 @@
         <v>1193</v>
       </c>
       <c r="I109" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1915</v>
       </c>
@@ -7336,10 +7336,10 @@
         <v>1193</v>
       </c>
       <c r="I110" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1915</v>
       </c>
@@ -7362,10 +7362,10 @@
         <v>1193</v>
       </c>
       <c r="I111" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1915</v>
       </c>
@@ -7388,10 +7388,10 @@
         <v>1208</v>
       </c>
       <c r="I112" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1915</v>
       </c>
@@ -7414,10 +7414,10 @@
         <v>1208</v>
       </c>
       <c r="I113" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1915</v>
       </c>
@@ -7440,10 +7440,10 @@
         <v>1208</v>
       </c>
       <c r="I114" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1915</v>
       </c>
@@ -7466,16 +7466,16 @@
         <v>1209</v>
       </c>
       <c r="I115" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="K115" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="L115" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1915</v>
       </c>
@@ -7498,10 +7498,10 @@
         <v>1209</v>
       </c>
       <c r="I116" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1915</v>
       </c>
@@ -7524,10 +7524,10 @@
         <v>1209</v>
       </c>
       <c r="I117" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1915</v>
       </c>
@@ -7550,10 +7550,10 @@
         <v>1209</v>
       </c>
       <c r="I118" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1915</v>
       </c>
@@ -7573,13 +7573,13 @@
         <v>965</v>
       </c>
       <c r="H119" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I119" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1915</v>
       </c>
@@ -7599,13 +7599,13 @@
         <v>966</v>
       </c>
       <c r="H120" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="I120" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1915</v>
       </c>
@@ -7628,10 +7628,10 @@
         <v>1210</v>
       </c>
       <c r="I121" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1915</v>
       </c>
@@ -7654,10 +7654,10 @@
         <v>1210</v>
       </c>
       <c r="I122" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1915</v>
       </c>
@@ -7680,10 +7680,10 @@
         <v>1210</v>
       </c>
       <c r="I123" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1915</v>
       </c>
@@ -7703,13 +7703,13 @@
         <v>970</v>
       </c>
       <c r="H124" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="I124" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1915</v>
       </c>
@@ -7729,13 +7729,13 @@
         <v>971</v>
       </c>
       <c r="H125" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="I125" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1915</v>
       </c>
@@ -7755,19 +7755,19 @@
         <v>972</v>
       </c>
       <c r="H126" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="I126" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="K126" t="s">
         <v>1200</v>
       </c>
       <c r="L126" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1915</v>
       </c>
@@ -7790,10 +7790,10 @@
         <v>1211</v>
       </c>
       <c r="I127" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1915</v>
       </c>
@@ -7816,10 +7816,10 @@
         <v>1211</v>
       </c>
       <c r="I128" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1915</v>
       </c>
@@ -7842,10 +7842,10 @@
         <v>1211</v>
       </c>
       <c r="I129" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1915</v>
       </c>
@@ -7868,10 +7868,10 @@
         <v>1212</v>
       </c>
       <c r="I130" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1915</v>
       </c>
@@ -7894,10 +7894,10 @@
         <v>1212</v>
       </c>
       <c r="I131" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1915</v>
       </c>
@@ -7917,13 +7917,13 @@
         <v>976</v>
       </c>
       <c r="H132" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="I132" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1915</v>
       </c>
@@ -7946,10 +7946,10 @@
         <v>1214</v>
       </c>
       <c r="I133" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1915</v>
       </c>
@@ -7972,10 +7972,10 @@
         <v>1215</v>
       </c>
       <c r="I134" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1915</v>
       </c>
@@ -7995,13 +7995,13 @@
         <v>977</v>
       </c>
       <c r="H135" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="I135" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1915</v>
       </c>
@@ -8021,13 +8021,13 @@
         <v>978</v>
       </c>
       <c r="H136" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="I136" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1915</v>
       </c>
@@ -8047,13 +8047,13 @@
         <v>964</v>
       </c>
       <c r="H137" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="I137" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1915</v>
       </c>
@@ -8076,10 +8076,10 @@
         <v>1216</v>
       </c>
       <c r="I138" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1915</v>
       </c>
@@ -8102,10 +8102,10 @@
         <v>1217</v>
       </c>
       <c r="I139" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1915</v>
       </c>
@@ -8128,10 +8128,10 @@
         <v>1217</v>
       </c>
       <c r="I140" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1915</v>
       </c>
@@ -8154,10 +8154,10 @@
         <v>1217</v>
       </c>
       <c r="I141" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1915</v>
       </c>
@@ -8180,10 +8180,10 @@
         <v>1218</v>
       </c>
       <c r="I142" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1915</v>
       </c>
@@ -8206,10 +8206,10 @@
         <v>1219</v>
       </c>
       <c r="I143" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1915</v>
       </c>
@@ -8232,10 +8232,10 @@
         <v>1219</v>
       </c>
       <c r="I144" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1915</v>
       </c>
@@ -8255,13 +8255,13 @@
         <v>984</v>
       </c>
       <c r="H145" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="I145" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1915</v>
       </c>
@@ -8281,13 +8281,13 @@
         <v>928</v>
       </c>
       <c r="H146" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="I146" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1915</v>
       </c>
@@ -8307,13 +8307,13 @@
         <v>985</v>
       </c>
       <c r="H147" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="I147" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1915</v>
       </c>
@@ -8336,16 +8336,16 @@
         <v>1219</v>
       </c>
       <c r="I148" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="K148" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="L148" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1915</v>
       </c>
@@ -8368,10 +8368,10 @@
         <v>1220</v>
       </c>
       <c r="I149" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1915</v>
       </c>
@@ -8394,10 +8394,10 @@
         <v>1220</v>
       </c>
       <c r="I150" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1915</v>
       </c>
@@ -8417,13 +8417,13 @@
         <v>989</v>
       </c>
       <c r="H151" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="I151" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1915</v>
       </c>
@@ -8443,13 +8443,13 @@
         <v>990</v>
       </c>
       <c r="H152" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="I152" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1915</v>
       </c>
@@ -8472,10 +8472,10 @@
         <v>1221</v>
       </c>
       <c r="I153" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1915</v>
       </c>
@@ -8498,10 +8498,10 @@
         <v>1221</v>
       </c>
       <c r="I154" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1915</v>
       </c>
@@ -8521,13 +8521,13 @@
         <v>992</v>
       </c>
       <c r="H155" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="I155" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1915</v>
       </c>
@@ -8547,13 +8547,13 @@
         <v>993</v>
       </c>
       <c r="H156" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="I156" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1915</v>
       </c>
@@ -8573,13 +8573,13 @@
         <v>876</v>
       </c>
       <c r="H157" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="I157" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1915</v>
       </c>
@@ -8599,13 +8599,13 @@
         <v>994</v>
       </c>
       <c r="H158" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I158" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1915</v>
       </c>
@@ -8625,13 +8625,13 @@
         <v>995</v>
       </c>
       <c r="H159" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I159" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1915</v>
       </c>
@@ -8651,13 +8651,13 @@
         <v>996</v>
       </c>
       <c r="H160" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I160" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1915</v>
       </c>
@@ -8677,13 +8677,13 @@
         <v>997</v>
       </c>
       <c r="H161" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I161" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1915</v>
       </c>
@@ -8703,13 +8703,13 @@
         <v>998</v>
       </c>
       <c r="H162" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I162" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1915</v>
       </c>
@@ -8729,13 +8729,13 @@
         <v>999</v>
       </c>
       <c r="H163" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I163" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1915</v>
       </c>
@@ -8755,13 +8755,13 @@
         <v>1000</v>
       </c>
       <c r="H164" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="I164" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1915</v>
       </c>
@@ -8781,13 +8781,13 @@
         <v>876</v>
       </c>
       <c r="H165" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I165" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1915</v>
       </c>
@@ -8807,13 +8807,13 @@
         <v>1001</v>
       </c>
       <c r="H166" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="I166" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1915</v>
       </c>
@@ -8836,10 +8836,10 @@
         <v>1222</v>
       </c>
       <c r="I167" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1915</v>
       </c>
@@ -8862,10 +8862,10 @@
         <v>1223</v>
       </c>
       <c r="I168" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1915</v>
       </c>
@@ -8888,10 +8888,10 @@
         <v>1223</v>
       </c>
       <c r="I169" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1915</v>
       </c>
@@ -8914,10 +8914,10 @@
         <v>1223</v>
       </c>
       <c r="I170" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1915</v>
       </c>
@@ -8940,10 +8940,10 @@
         <v>1211</v>
       </c>
       <c r="I171" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1915</v>
       </c>
@@ -8966,10 +8966,10 @@
         <v>1211</v>
       </c>
       <c r="I172" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1915</v>
       </c>
@@ -8992,10 +8992,10 @@
         <v>1224</v>
       </c>
       <c r="I173" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1915</v>
       </c>
@@ -9015,13 +9015,13 @@
         <v>1006</v>
       </c>
       <c r="H174" t="s">
-        <v>1329</v>
+        <v>1347</v>
       </c>
       <c r="I174" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1915</v>
       </c>
@@ -9041,13 +9041,13 @@
         <v>887</v>
       </c>
       <c r="H175" t="s">
-        <v>1329</v>
+        <v>1347</v>
       </c>
       <c r="I175" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1915</v>
       </c>
@@ -9067,13 +9067,13 @@
         <v>1007</v>
       </c>
       <c r="H176" t="s">
-        <v>1329</v>
+        <v>1347</v>
       </c>
       <c r="I176" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1915</v>
       </c>
@@ -9096,10 +9096,10 @@
         <v>1225</v>
       </c>
       <c r="I177" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1915</v>
       </c>
@@ -9122,10 +9122,10 @@
         <v>1226</v>
       </c>
       <c r="I178" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1915</v>
       </c>
@@ -9148,10 +9148,10 @@
         <v>1226</v>
       </c>
       <c r="I179" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1915</v>
       </c>
@@ -9174,10 +9174,10 @@
         <v>1226</v>
       </c>
       <c r="I180" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1915</v>
       </c>
@@ -9197,10 +9197,10 @@
         <v>1012</v>
       </c>
       <c r="H181" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1915</v>
       </c>
@@ -9220,10 +9220,10 @@
         <v>1013</v>
       </c>
       <c r="H182" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1915</v>
       </c>
@@ -9243,10 +9243,10 @@
         <v>1014</v>
       </c>
       <c r="H183" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1915</v>
       </c>
@@ -9266,10 +9266,10 @@
         <v>1015</v>
       </c>
       <c r="H184" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1915</v>
       </c>
@@ -9289,13 +9289,13 @@
         <v>1016</v>
       </c>
       <c r="H185" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I185" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1915</v>
       </c>
@@ -9315,13 +9315,13 @@
         <v>884</v>
       </c>
       <c r="H186" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I186" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1915</v>
       </c>
@@ -9341,13 +9341,13 @@
         <v>1017</v>
       </c>
       <c r="H187" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I187" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1915</v>
       </c>
@@ -9367,13 +9367,13 @@
         <v>1018</v>
       </c>
       <c r="H188" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="I188" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1915</v>
       </c>
@@ -9396,10 +9396,10 @@
         <v>1227</v>
       </c>
       <c r="I189" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1915</v>
       </c>
@@ -9422,10 +9422,10 @@
         <v>1227</v>
       </c>
       <c r="I190" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1915</v>
       </c>
@@ -9448,10 +9448,10 @@
         <v>1227</v>
       </c>
       <c r="I191" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1915</v>
       </c>
@@ -9474,10 +9474,10 @@
         <v>1227</v>
       </c>
       <c r="I192" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1915</v>
       </c>
@@ -9500,10 +9500,10 @@
         <v>1227</v>
       </c>
       <c r="I193" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1915</v>
       </c>
@@ -9526,10 +9526,10 @@
         <v>1227</v>
       </c>
       <c r="I194" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1915</v>
       </c>
@@ -9552,10 +9552,10 @@
         <v>1228</v>
       </c>
       <c r="I195" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1915</v>
       </c>
@@ -9578,10 +9578,10 @@
         <v>1228</v>
       </c>
       <c r="I196" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1915</v>
       </c>
@@ -9604,10 +9604,10 @@
         <v>1228</v>
       </c>
       <c r="I197" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1915</v>
       </c>
@@ -9630,13 +9630,13 @@
         <v>1229</v>
       </c>
       <c r="I198" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="J198" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1915</v>
       </c>
@@ -9659,13 +9659,13 @@
         <v>1229</v>
       </c>
       <c r="I199" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="J199" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1915</v>
       </c>
@@ -9688,13 +9688,13 @@
         <v>1229</v>
       </c>
       <c r="I200" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="J200" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1915</v>
       </c>
@@ -9717,13 +9717,13 @@
         <v>1229</v>
       </c>
       <c r="I201" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="J201" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1915</v>
       </c>
@@ -9746,13 +9746,13 @@
         <v>1229</v>
       </c>
       <c r="I202" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="J202" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1915</v>
       </c>
@@ -9775,13 +9775,13 @@
         <v>1229</v>
       </c>
       <c r="I203" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="J203" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1915</v>
       </c>
@@ -9804,10 +9804,10 @@
         <v>1230</v>
       </c>
       <c r="I204" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1915</v>
       </c>
@@ -9830,10 +9830,10 @@
         <v>1230</v>
       </c>
       <c r="I205" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1915</v>
       </c>
@@ -9856,10 +9856,10 @@
         <v>1230</v>
       </c>
       <c r="I206" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1915</v>
       </c>
@@ -9882,10 +9882,10 @@
         <v>1231</v>
       </c>
       <c r="I207" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1915</v>
       </c>
@@ -9908,10 +9908,10 @@
         <v>1231</v>
       </c>
       <c r="I208" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1915</v>
       </c>
@@ -9934,10 +9934,10 @@
         <v>1231</v>
       </c>
       <c r="I209" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1915</v>
       </c>
@@ -9960,10 +9960,10 @@
         <v>1231</v>
       </c>
       <c r="I210" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1915</v>
       </c>
@@ -9986,10 +9986,10 @@
         <v>1231</v>
       </c>
       <c r="I211" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1915</v>
       </c>
@@ -10012,10 +10012,10 @@
         <v>1231</v>
       </c>
       <c r="I212" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1915</v>
       </c>
@@ -10038,10 +10038,10 @@
         <v>1232</v>
       </c>
       <c r="I213" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1915</v>
       </c>
@@ -10064,10 +10064,10 @@
         <v>1232</v>
       </c>
       <c r="I214" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1915</v>
       </c>
@@ -10090,10 +10090,10 @@
         <v>1232</v>
       </c>
       <c r="I215" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1915</v>
       </c>
@@ -10116,10 +10116,10 @@
         <v>1232</v>
       </c>
       <c r="I216" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1915</v>
       </c>
@@ -10142,10 +10142,10 @@
         <v>1232</v>
       </c>
       <c r="I217" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1915</v>
       </c>
@@ -10168,10 +10168,10 @@
         <v>1232</v>
       </c>
       <c r="I218" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1915</v>
       </c>
@@ -10194,10 +10194,10 @@
         <v>1233</v>
       </c>
       <c r="I219" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1915</v>
       </c>
@@ -10220,10 +10220,10 @@
         <v>1234</v>
       </c>
       <c r="I220" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1915</v>
       </c>
@@ -10246,10 +10246,10 @@
         <v>1234</v>
       </c>
       <c r="I221" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1915</v>
       </c>
@@ -10272,10 +10272,10 @@
         <v>1235</v>
       </c>
       <c r="I222" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1915</v>
       </c>
@@ -10298,10 +10298,10 @@
         <v>1236</v>
       </c>
       <c r="I223" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1915</v>
       </c>
@@ -10324,10 +10324,10 @@
         <v>1237</v>
       </c>
       <c r="I224" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1915</v>
       </c>
@@ -10350,10 +10350,10 @@
         <v>1237</v>
       </c>
       <c r="I225" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1915</v>
       </c>
@@ -10376,10 +10376,10 @@
         <v>1235</v>
       </c>
       <c r="I226" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1915</v>
       </c>
@@ -10402,10 +10402,10 @@
         <v>1236</v>
       </c>
       <c r="I227" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1915</v>
       </c>
@@ -10428,10 +10428,10 @@
         <v>1236</v>
       </c>
       <c r="I228" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1915</v>
       </c>
@@ -10454,10 +10454,10 @@
         <v>1236</v>
       </c>
       <c r="I229" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1915</v>
       </c>
@@ -10480,10 +10480,10 @@
         <v>1235</v>
       </c>
       <c r="I230" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1915</v>
       </c>
@@ -10506,10 +10506,10 @@
         <v>1238</v>
       </c>
       <c r="I231" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1915</v>
       </c>
@@ -10532,10 +10532,10 @@
         <v>1238</v>
       </c>
       <c r="I232" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1915</v>
       </c>
@@ -10555,16 +10555,16 @@
         <v>1054</v>
       </c>
       <c r="H233" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="I233" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J233" t="s">
         <v>1333</v>
       </c>
-      <c r="J233" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1915</v>
       </c>
@@ -10587,10 +10587,10 @@
         <v>1237</v>
       </c>
       <c r="I234" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1915</v>
       </c>
@@ -10613,10 +10613,10 @@
         <v>1238</v>
       </c>
       <c r="I235" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1915</v>
       </c>
@@ -10636,13 +10636,13 @@
         <v>968</v>
       </c>
       <c r="H236" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I236" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1915</v>
       </c>
@@ -10662,16 +10662,16 @@
         <v>1057</v>
       </c>
       <c r="H237" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="I237" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J237" t="s">
         <v>1333</v>
       </c>
-      <c r="J237" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1915</v>
       </c>
@@ -10691,16 +10691,16 @@
         <v>876</v>
       </c>
       <c r="H238" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="I238" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J238" t="s">
         <v>1333</v>
       </c>
-      <c r="J238" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1915</v>
       </c>
@@ -10720,13 +10720,13 @@
         <v>1058</v>
       </c>
       <c r="H239" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="I239" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1915</v>
       </c>
@@ -10749,10 +10749,10 @@
         <v>1236</v>
       </c>
       <c r="I240" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1915</v>
       </c>
@@ -10775,10 +10775,10 @@
         <v>1239</v>
       </c>
       <c r="I241" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1915</v>
       </c>
@@ -10798,16 +10798,16 @@
         <v>1060</v>
       </c>
       <c r="H242" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="I242" t="s">
+        <v>1331</v>
+      </c>
+      <c r="J242" t="s">
         <v>1333</v>
       </c>
-      <c r="J242" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1915</v>
       </c>
@@ -10830,10 +10830,10 @@
         <v>1240</v>
       </c>
       <c r="I243" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1915</v>
       </c>
@@ -10856,10 +10856,10 @@
         <v>1240</v>
       </c>
       <c r="I244" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1915</v>
       </c>
@@ -10882,10 +10882,10 @@
         <v>1240</v>
       </c>
       <c r="I245" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1915</v>
       </c>
@@ -10908,10 +10908,10 @@
         <v>1240</v>
       </c>
       <c r="I246" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1915</v>
       </c>
@@ -10934,10 +10934,10 @@
         <v>1240</v>
       </c>
       <c r="I247" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1915</v>
       </c>
@@ -10960,10 +10960,10 @@
         <v>1178</v>
       </c>
       <c r="I248" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1915</v>
       </c>
@@ -10986,10 +10986,10 @@
         <v>1241</v>
       </c>
       <c r="I249" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1915</v>
       </c>
@@ -11009,13 +11009,13 @@
         <v>876</v>
       </c>
       <c r="H250" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="I250" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1915</v>
       </c>
@@ -11038,10 +11038,10 @@
         <v>1242</v>
       </c>
       <c r="I251" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1915</v>
       </c>
@@ -11064,10 +11064,10 @@
         <v>1242</v>
       </c>
       <c r="I252" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1915</v>
       </c>
@@ -11090,10 +11090,10 @@
         <v>1241</v>
       </c>
       <c r="I253" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1915</v>
       </c>
@@ -11113,13 +11113,13 @@
         <v>1069</v>
       </c>
       <c r="H254" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="I254" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1915</v>
       </c>
@@ -11139,13 +11139,13 @@
         <v>1070</v>
       </c>
       <c r="H255" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="I255" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1915</v>
       </c>
@@ -11168,10 +11168,10 @@
         <v>1243</v>
       </c>
       <c r="I256" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1915</v>
       </c>
@@ -11194,10 +11194,10 @@
         <v>1243</v>
       </c>
       <c r="I257" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1915</v>
       </c>
@@ -11217,13 +11217,13 @@
         <v>876</v>
       </c>
       <c r="H258" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="I258" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1915</v>
       </c>
@@ -11246,10 +11246,10 @@
         <v>1244</v>
       </c>
       <c r="I259" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1915</v>
       </c>
@@ -11272,10 +11272,10 @@
         <v>1241</v>
       </c>
       <c r="I260" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1915</v>
       </c>
@@ -11298,10 +11298,10 @@
         <v>1241</v>
       </c>
       <c r="I261" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1915</v>
       </c>
@@ -11321,13 +11321,13 @@
         <v>876</v>
       </c>
       <c r="H262" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="I262" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1915</v>
       </c>
@@ -11347,13 +11347,13 @@
         <v>1076</v>
       </c>
       <c r="H263" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I263" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1915</v>
       </c>
@@ -11376,10 +11376,10 @@
         <v>1241</v>
       </c>
       <c r="I264" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1915</v>
       </c>
@@ -11402,10 +11402,10 @@
         <v>1243</v>
       </c>
       <c r="I265" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1915</v>
       </c>
@@ -11425,13 +11425,13 @@
         <v>910</v>
       </c>
       <c r="H266" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="I266" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1915</v>
       </c>
@@ -11454,10 +11454,10 @@
         <v>1195</v>
       </c>
       <c r="I267" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1915</v>
       </c>
@@ -11480,10 +11480,10 @@
         <v>1195</v>
       </c>
       <c r="I268" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1915</v>
       </c>
@@ -11506,10 +11506,10 @@
         <v>1195</v>
       </c>
       <c r="I269" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1915</v>
       </c>
@@ -11529,13 +11529,13 @@
         <v>1081</v>
       </c>
       <c r="H270" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="I270" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1915</v>
       </c>
@@ -11558,10 +11558,10 @@
         <v>1245</v>
       </c>
       <c r="I271" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1915</v>
       </c>
@@ -11584,10 +11584,10 @@
         <v>1245</v>
       </c>
       <c r="I272" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1915</v>
       </c>
@@ -11607,13 +11607,13 @@
         <v>1083</v>
       </c>
       <c r="H273" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I273" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1915</v>
       </c>
@@ -11633,13 +11633,13 @@
         <v>1084</v>
       </c>
       <c r="H274" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I274" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1915</v>
       </c>
@@ -11662,10 +11662,10 @@
         <v>1246</v>
       </c>
       <c r="I275" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1915</v>
       </c>
@@ -11688,10 +11688,10 @@
         <v>1246</v>
       </c>
       <c r="I276" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1915</v>
       </c>
@@ -11711,13 +11711,13 @@
         <v>1087</v>
       </c>
       <c r="H277" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I277" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1915</v>
       </c>
@@ -11737,13 +11737,13 @@
         <v>1068</v>
       </c>
       <c r="H278" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="I278" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1915</v>
       </c>
@@ -11766,10 +11766,10 @@
         <v>1247</v>
       </c>
       <c r="I279" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1915</v>
       </c>
@@ -11789,13 +11789,13 @@
         <v>1088</v>
       </c>
       <c r="H280" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I280" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1915</v>
       </c>
@@ -11815,13 +11815,13 @@
         <v>1089</v>
       </c>
       <c r="H281" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I281" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1915</v>
       </c>
@@ -11841,13 +11841,13 @@
         <v>1008</v>
       </c>
       <c r="H282" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="I282" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1915</v>
       </c>
@@ -11870,10 +11870,10 @@
         <v>1248</v>
       </c>
       <c r="I283" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1915</v>
       </c>
@@ -11896,10 +11896,10 @@
         <v>1195</v>
       </c>
       <c r="I284" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1915</v>
       </c>
@@ -11922,10 +11922,10 @@
         <v>1195</v>
       </c>
       <c r="I285" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1915</v>
       </c>
@@ -11948,10 +11948,10 @@
         <v>1195</v>
       </c>
       <c r="I286" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1915</v>
       </c>
@@ -11971,13 +11971,13 @@
         <v>1091</v>
       </c>
       <c r="H287" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I287" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1915</v>
       </c>
@@ -11997,13 +11997,13 @@
         <v>981</v>
       </c>
       <c r="H288" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I288" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1915</v>
       </c>
@@ -12023,13 +12023,13 @@
         <v>1092</v>
       </c>
       <c r="H289" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="I289" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1915</v>
       </c>
@@ -12052,10 +12052,10 @@
         <v>1246</v>
       </c>
       <c r="I290" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1915</v>
       </c>
@@ -12078,10 +12078,10 @@
         <v>1249</v>
       </c>
       <c r="I291" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1915</v>
       </c>
@@ -12104,10 +12104,10 @@
         <v>1249</v>
       </c>
       <c r="I292" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1915</v>
       </c>
@@ -12133,10 +12133,10 @@
         <v>1249</v>
       </c>
       <c r="I293" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1915</v>
       </c>
@@ -12159,10 +12159,10 @@
         <v>1249</v>
       </c>
       <c r="I294" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1915</v>
       </c>
@@ -12185,10 +12185,10 @@
         <v>1249</v>
       </c>
       <c r="I295" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1915</v>
       </c>
@@ -12211,10 +12211,10 @@
         <v>1250</v>
       </c>
       <c r="I296" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1915</v>
       </c>
@@ -12237,10 +12237,10 @@
         <v>1250</v>
       </c>
       <c r="I297" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1915</v>
       </c>
@@ -12263,10 +12263,10 @@
         <v>1250</v>
       </c>
       <c r="I298" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1915</v>
       </c>
@@ -12289,10 +12289,10 @@
         <v>1251</v>
       </c>
       <c r="I299" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1915</v>
       </c>
@@ -12315,10 +12315,10 @@
         <v>1252</v>
       </c>
       <c r="I300" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1915</v>
       </c>
@@ -12341,10 +12341,10 @@
         <v>1251</v>
       </c>
       <c r="I301" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1915</v>
       </c>
@@ -12367,10 +12367,10 @@
         <v>1251</v>
       </c>
       <c r="I302" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1915</v>
       </c>
@@ -12393,10 +12393,10 @@
         <v>1253</v>
       </c>
       <c r="I303" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1915</v>
       </c>
@@ -12419,10 +12419,10 @@
         <v>1253</v>
       </c>
       <c r="I304" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1915</v>
       </c>
@@ -12445,10 +12445,10 @@
         <v>1254</v>
       </c>
       <c r="I305" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1915</v>
       </c>
@@ -12471,10 +12471,10 @@
         <v>1254</v>
       </c>
       <c r="I306" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1915</v>
       </c>
@@ -12497,10 +12497,10 @@
         <v>1255</v>
       </c>
       <c r="I307" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1915</v>
       </c>
@@ -12523,10 +12523,10 @@
         <v>1255</v>
       </c>
       <c r="I308" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1915</v>
       </c>
@@ -12549,10 +12549,10 @@
         <v>1250</v>
       </c>
       <c r="I309" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1915</v>
       </c>
@@ -12575,10 +12575,10 @@
         <v>1251</v>
       </c>
       <c r="I310" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1915</v>
       </c>
@@ -12598,13 +12598,13 @@
         <v>1108</v>
       </c>
       <c r="H311" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="I311" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1915</v>
       </c>
@@ -12624,13 +12624,13 @@
         <v>1109</v>
       </c>
       <c r="H312" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="I312" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1915</v>
       </c>
@@ -12653,10 +12653,10 @@
         <v>1256</v>
       </c>
       <c r="I313" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1915</v>
       </c>
@@ -12679,10 +12679,10 @@
         <v>1256</v>
       </c>
       <c r="I314" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1915</v>
       </c>
@@ -12702,13 +12702,13 @@
         <v>1110</v>
       </c>
       <c r="H315" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I315" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1915</v>
       </c>
@@ -12731,13 +12731,13 @@
         <v>1012</v>
       </c>
       <c r="H316" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I316" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1915</v>
       </c>
@@ -12760,10 +12760,10 @@
         <v>1257</v>
       </c>
       <c r="I317" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1915</v>
       </c>
@@ -12786,10 +12786,10 @@
         <v>1257</v>
       </c>
       <c r="I318" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1915</v>
       </c>
@@ -12812,10 +12812,10 @@
         <v>1258</v>
       </c>
       <c r="I319" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1915</v>
       </c>
@@ -12838,10 +12838,10 @@
         <v>1259</v>
       </c>
       <c r="I320" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1915</v>
       </c>
@@ -12861,13 +12861,13 @@
         <v>1114</v>
       </c>
       <c r="H321" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="I321" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1915</v>
       </c>
@@ -12887,13 +12887,13 @@
         <v>1115</v>
       </c>
       <c r="H322" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="I322" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1915</v>
       </c>
@@ -12916,10 +12916,10 @@
         <v>1256</v>
       </c>
       <c r="I323" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1915</v>
       </c>
@@ -12939,13 +12939,13 @@
         <v>1117</v>
       </c>
       <c r="H324" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I324" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1915</v>
       </c>
@@ -12965,13 +12965,13 @@
         <v>969</v>
       </c>
       <c r="H325" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="I325" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1915</v>
       </c>
@@ -12994,10 +12994,10 @@
         <v>1213</v>
       </c>
       <c r="I326" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1915</v>
       </c>
@@ -13017,13 +13017,13 @@
         <v>1118</v>
       </c>
       <c r="H327" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I327" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1915</v>
       </c>
@@ -13046,10 +13046,10 @@
         <v>1243</v>
       </c>
       <c r="I328" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1915</v>
       </c>
@@ -13072,10 +13072,10 @@
         <v>1243</v>
       </c>
       <c r="I329" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1915</v>
       </c>
@@ -13095,13 +13095,13 @@
         <v>875</v>
       </c>
       <c r="H330" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="I330" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1915</v>
       </c>
@@ -13127,10 +13127,10 @@
         <v>1260</v>
       </c>
       <c r="I331" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1915</v>
       </c>
@@ -13156,10 +13156,10 @@
         <v>1260</v>
       </c>
       <c r="I332" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1915</v>
       </c>
@@ -13182,10 +13182,10 @@
         <v>1213</v>
       </c>
       <c r="I333" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1915</v>
       </c>
@@ -13208,10 +13208,10 @@
         <v>1261</v>
       </c>
       <c r="I334" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1915</v>
       </c>
@@ -13234,10 +13234,10 @@
         <v>1262</v>
       </c>
       <c r="I335" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1915</v>
       </c>
@@ -13260,10 +13260,10 @@
         <v>1262</v>
       </c>
       <c r="I336" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1915</v>
       </c>
@@ -13286,10 +13286,10 @@
         <v>1262</v>
       </c>
       <c r="I337" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1915</v>
       </c>
@@ -13312,10 +13312,10 @@
         <v>1263</v>
       </c>
       <c r="I338" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1915</v>
       </c>
@@ -13338,10 +13338,10 @@
         <v>1264</v>
       </c>
       <c r="I339" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1915</v>
       </c>
@@ -13364,10 +13364,10 @@
         <v>1263</v>
       </c>
       <c r="I340" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1915</v>
       </c>
@@ -13390,10 +13390,10 @@
         <v>1265</v>
       </c>
       <c r="I341" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1915</v>
       </c>
@@ -13416,10 +13416,10 @@
         <v>1265</v>
       </c>
       <c r="I342" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1915</v>
       </c>
@@ -13442,10 +13442,10 @@
         <v>1265</v>
       </c>
       <c r="I343" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1915</v>
       </c>
@@ -13468,10 +13468,10 @@
         <v>1266</v>
       </c>
       <c r="I344" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1915</v>
       </c>
@@ -13494,10 +13494,10 @@
         <v>1266</v>
       </c>
       <c r="I345" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1915</v>
       </c>
@@ -13520,10 +13520,10 @@
         <v>1267</v>
       </c>
       <c r="I346" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1915</v>
       </c>
@@ -13546,10 +13546,10 @@
         <v>1267</v>
       </c>
       <c r="I347" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1915</v>
       </c>
@@ -13575,10 +13575,10 @@
         <v>1268</v>
       </c>
       <c r="I348" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1915</v>
       </c>
@@ -13604,10 +13604,10 @@
         <v>1268</v>
       </c>
       <c r="I349" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1915</v>
       </c>
@@ -13633,10 +13633,10 @@
         <v>1268</v>
       </c>
       <c r="I350" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1915</v>
       </c>
@@ -13662,10 +13662,10 @@
         <v>1268</v>
       </c>
       <c r="I351" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1915</v>
       </c>
@@ -13688,10 +13688,10 @@
         <v>1131</v>
       </c>
       <c r="H352" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1915</v>
       </c>
@@ -13711,10 +13711,10 @@
         <v>1132</v>
       </c>
       <c r="H353" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1915</v>
       </c>
@@ -13734,10 +13734,10 @@
         <v>1003</v>
       </c>
       <c r="H354" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1915</v>
       </c>
@@ -13760,10 +13760,10 @@
         <v>1269</v>
       </c>
       <c r="I355" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1915</v>
       </c>
@@ -13786,10 +13786,10 @@
         <v>1269</v>
       </c>
       <c r="I356" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1915</v>
       </c>
@@ -13812,10 +13812,10 @@
         <v>1270</v>
       </c>
       <c r="I357" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1915</v>
       </c>
@@ -13838,10 +13838,10 @@
         <v>1270</v>
       </c>
       <c r="I358" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1915</v>
       </c>
@@ -13864,10 +13864,10 @@
         <v>1271</v>
       </c>
       <c r="I359" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1915</v>
       </c>
@@ -13890,10 +13890,10 @@
         <v>1271</v>
       </c>
       <c r="I360" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1915</v>
       </c>
@@ -13916,10 +13916,10 @@
         <v>1271</v>
       </c>
       <c r="I361" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1915</v>
       </c>
@@ -13945,10 +13945,10 @@
         <v>1272</v>
       </c>
       <c r="I362" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1915</v>
       </c>
@@ -13971,10 +13971,10 @@
         <v>1272</v>
       </c>
       <c r="I363" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1915</v>
       </c>
@@ -13997,10 +13997,10 @@
         <v>1272</v>
       </c>
       <c r="I364" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1915</v>
       </c>
@@ -14023,10 +14023,10 @@
         <v>1272</v>
       </c>
       <c r="I365" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1915</v>
       </c>
@@ -14049,10 +14049,10 @@
         <v>1273</v>
       </c>
       <c r="I366" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1915</v>
       </c>
@@ -14075,10 +14075,10 @@
         <v>1273</v>
       </c>
       <c r="I367" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1915</v>
       </c>
@@ -14101,10 +14101,10 @@
         <v>1273</v>
       </c>
       <c r="I368" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1915</v>
       </c>
@@ -14127,10 +14127,10 @@
         <v>1273</v>
       </c>
       <c r="I369" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1915</v>
       </c>
@@ -14153,10 +14153,10 @@
         <v>1273</v>
       </c>
       <c r="I370" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1915</v>
       </c>
@@ -14179,10 +14179,10 @@
         <v>1273</v>
       </c>
       <c r="I371" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1915</v>
       </c>
@@ -14205,10 +14205,10 @@
         <v>1273</v>
       </c>
       <c r="I372" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1915</v>
       </c>
@@ -14231,10 +14231,10 @@
         <v>1273</v>
       </c>
       <c r="I373" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1915</v>
       </c>
@@ -14257,13 +14257,13 @@
         <v>1274</v>
       </c>
       <c r="I374" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="J374" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1915</v>
       </c>
@@ -14286,13 +14286,13 @@
         <v>1274</v>
       </c>
       <c r="I375" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="J375" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1915</v>
       </c>
@@ -14315,13 +14315,13 @@
         <v>1274</v>
       </c>
       <c r="I376" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="J376" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1915</v>
       </c>
@@ -14344,10 +14344,10 @@
         <v>1275</v>
       </c>
       <c r="I377" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1915</v>
       </c>
@@ -14370,10 +14370,10 @@
         <v>1276</v>
       </c>
       <c r="I378" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1915</v>
       </c>
@@ -14396,10 +14396,10 @@
         <v>1277</v>
       </c>
       <c r="I379" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1915</v>
       </c>
@@ -14422,10 +14422,10 @@
         <v>1278</v>
       </c>
       <c r="I380" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1915</v>
       </c>
@@ -14448,10 +14448,10 @@
         <v>1279</v>
       </c>
       <c r="I381" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1915</v>
       </c>
@@ -14477,10 +14477,10 @@
         <v>1280</v>
       </c>
       <c r="I382" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1915</v>
       </c>
@@ -14506,10 +14506,10 @@
         <v>1280</v>
       </c>
       <c r="I383" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1915</v>
       </c>
@@ -14535,10 +14535,10 @@
         <v>1280</v>
       </c>
       <c r="I384" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1915</v>
       </c>
@@ -14564,10 +14564,10 @@
         <v>1280</v>
       </c>
       <c r="I385" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1915</v>
       </c>
@@ -14593,10 +14593,10 @@
         <v>1281</v>
       </c>
       <c r="I386" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1915</v>
       </c>
@@ -14622,10 +14622,10 @@
         <v>1281</v>
       </c>
       <c r="I387" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1915</v>
       </c>
@@ -14651,10 +14651,10 @@
         <v>1281</v>
       </c>
       <c r="I388" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1915</v>
       </c>
@@ -14680,10 +14680,10 @@
         <v>1281</v>
       </c>
       <c r="I389" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1915</v>
       </c>
@@ -14709,10 +14709,10 @@
         <v>1281</v>
       </c>
       <c r="I390" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1915</v>
       </c>
@@ -14738,10 +14738,10 @@
         <v>1281</v>
       </c>
       <c r="I391" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1915</v>
       </c>
@@ -14764,10 +14764,10 @@
         <v>1282</v>
       </c>
       <c r="I392" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1915</v>
       </c>
@@ -14790,10 +14790,10 @@
         <v>1282</v>
       </c>
       <c r="I393" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1915</v>
       </c>
@@ -14816,10 +14816,10 @@
         <v>1194</v>
       </c>
       <c r="I394" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1915</v>
       </c>
@@ -14842,10 +14842,10 @@
         <v>1194</v>
       </c>
       <c r="I395" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1915</v>
       </c>
@@ -14868,10 +14868,10 @@
         <v>1194</v>
       </c>
       <c r="I396" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1915</v>
       </c>
@@ -14894,10 +14894,10 @@
         <v>1194</v>
       </c>
       <c r="I397" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1915</v>
       </c>
@@ -14920,16 +14920,16 @@
         <v>1194</v>
       </c>
       <c r="I398" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="J398" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="K398" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1915</v>
       </c>
@@ -14952,10 +14952,10 @@
         <v>1194</v>
       </c>
       <c r="I399" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1915</v>
       </c>
@@ -14975,13 +14975,13 @@
         <v>882</v>
       </c>
       <c r="H400" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I400" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1915</v>
       </c>
@@ -15001,19 +15001,19 @@
         <v>1156</v>
       </c>
       <c r="H401" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="I401" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="J401" t="s">
         <v>1194</v>
       </c>
       <c r="K401" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1915</v>
       </c>
@@ -15033,13 +15033,13 @@
         <v>1157</v>
       </c>
       <c r="H402" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I402" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>1915</v>
       </c>
@@ -15059,13 +15059,13 @@
         <v>1158</v>
       </c>
       <c r="H403" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I403" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1915</v>
       </c>
@@ -15085,13 +15085,13 @@
         <v>1159</v>
       </c>
       <c r="H404" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I404" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1915</v>
       </c>
@@ -15111,13 +15111,13 @@
         <v>1160</v>
       </c>
       <c r="H405" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I405" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>1915</v>
       </c>
@@ -15137,13 +15137,13 @@
         <v>1161</v>
       </c>
       <c r="H406" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I406" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>1915</v>
       </c>
@@ -15163,13 +15163,13 @@
         <v>1162</v>
       </c>
       <c r="H407" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="I407" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1915</v>
       </c>
@@ -15192,10 +15192,10 @@
         <v>1283</v>
       </c>
       <c r="I408" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1915</v>
       </c>
@@ -15218,10 +15218,10 @@
         <v>1283</v>
       </c>
       <c r="I409" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>1915</v>
       </c>
@@ -15244,10 +15244,10 @@
         <v>1283</v>
       </c>
       <c r="I410" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1915</v>
       </c>
@@ -15270,10 +15270,10 @@
         <v>1283</v>
       </c>
       <c r="I411" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1915</v>
       </c>
@@ -15296,10 +15296,10 @@
         <v>1283</v>
       </c>
       <c r="I412" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>1915</v>
       </c>
@@ -15322,10 +15322,10 @@
         <v>1284</v>
       </c>
       <c r="I413" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>1915</v>
       </c>
@@ -15348,10 +15348,10 @@
         <v>1285</v>
       </c>
       <c r="I414" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>1915</v>
       </c>
@@ -15374,10 +15374,10 @@
         <v>1285</v>
       </c>
       <c r="I415" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>1915</v>
       </c>
@@ -15400,10 +15400,10 @@
         <v>1286</v>
       </c>
       <c r="I416" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>1915</v>
       </c>
@@ -15429,10 +15429,10 @@
         <v>1287</v>
       </c>
       <c r="I417" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>1915</v>
       </c>
@@ -15455,10 +15455,10 @@
         <v>1287</v>
       </c>
       <c r="I418" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>1915</v>
       </c>
@@ -15481,10 +15481,10 @@
         <v>1287</v>
       </c>
       <c r="I419" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>1915</v>
       </c>
@@ -15507,10 +15507,10 @@
         <v>1287</v>
       </c>
       <c r="I420" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>1915</v>
       </c>
@@ -15533,10 +15533,10 @@
         <v>1288</v>
       </c>
       <c r="I421" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>1915</v>
       </c>
@@ -15559,10 +15559,10 @@
         <v>1288</v>
       </c>
       <c r="I422" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>1915</v>
       </c>
@@ -15582,13 +15582,13 @@
         <v>876</v>
       </c>
       <c r="H423" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="I423" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>1915</v>
       </c>
@@ -15608,13 +15608,13 @@
         <v>882</v>
       </c>
       <c r="H424" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="I424" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>1915</v>
       </c>
@@ -15637,10 +15637,10 @@
         <v>1289</v>
       </c>
       <c r="I425" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>1915</v>
       </c>
@@ -15663,10 +15663,10 @@
         <v>1290</v>
       </c>
       <c r="I426" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>1915</v>
       </c>
@@ -15689,10 +15689,10 @@
         <v>1291</v>
       </c>
       <c r="I427" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>1915</v>
       </c>
@@ -15715,10 +15715,10 @@
         <v>1291</v>
       </c>
       <c r="I428" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>1915</v>
       </c>
@@ -15741,10 +15741,10 @@
         <v>1292</v>
       </c>
       <c r="I429" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>1915</v>
       </c>
@@ -15767,10 +15767,10 @@
         <v>1292</v>
       </c>
       <c r="I430" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>1915</v>
       </c>
@@ -15793,10 +15793,10 @@
         <v>1292</v>
       </c>
       <c r="I431" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>1915</v>
       </c>
@@ -15819,10 +15819,10 @@
         <v>1292</v>
       </c>
       <c r="I432" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>1915</v>
       </c>
@@ -15845,7 +15845,7 @@
         <v>1292</v>
       </c>
       <c r="I433" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
     </row>
   </sheetData>

--- a/data-migration/xlsx_1900-/1915_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1915_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E13E3F-2AA5-46B1-AA47-E6AE493A86BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{334A5F15-9376-4030-8860-066AF78C2958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2182,9 +2182,6 @@
     <t>Übungen</t>
   </si>
   <si>
-    <t>Henrik, Ibsen</t>
-  </si>
-  <si>
     <t>Gotische Übungen für Vorgerücktere</t>
   </si>
   <si>
@@ -2221,9 +2218,6 @@
     <t>Neuenglische Abteilung. Kleinere Dichtungen aus dem 17. Jahrhundert. Selbständige Arbeiten</t>
   </si>
   <si>
-    <t>Syntaxe de la langue franQaise</t>
-  </si>
-  <si>
     <t>Grundzüge der französischen Bedeutungslehre</t>
   </si>
   <si>
@@ -3574,9 +3568,6 @@
     <t>reichel_hf</t>
   </si>
   <si>
-    <t>steiner_h</t>
-  </si>
-  <si>
     <t>cohn_g</t>
   </si>
   <si>
@@ -3646,9 +3637,6 @@
     <t>oswald_a</t>
   </si>
   <si>
-    <t>roth_o</t>
-  </si>
-  <si>
     <t>steiger_o</t>
   </si>
   <si>
@@ -3886,9 +3874,6 @@
     <t>hescheler_k</t>
   </si>
   <si>
-    <t>standfuss_m</t>
-  </si>
-  <si>
     <t>tschulok_s</t>
   </si>
   <si>
@@ -3934,9 +3919,6 @@
     <t>brun_h</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>meyerwirz_e</t>
   </si>
   <si>
@@ -3988,12 +3970,6 @@
     <t>koehler_l1</t>
   </si>
   <si>
-    <t>vonschulthessrechberg_g</t>
-  </si>
-  <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
     <t>schulthess_w</t>
   </si>
   <si>
@@ -4003,9 +3979,6 @@
     <t>vongonzenbach_w</t>
   </si>
   <si>
-    <t>silberschmidt _w</t>
-  </si>
-  <si>
     <t>strohl_j</t>
   </si>
   <si>
@@ -4064,6 +4037,33 @@
   </si>
   <si>
     <t>nager_fr</t>
+  </si>
+  <si>
+    <t>Syntaxe de la langue française</t>
+  </si>
+  <si>
+    <t>Henrik Ibsen</t>
+  </si>
+  <si>
+    <t>meyer-rueegg_h</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>schulthess_rg</t>
+  </si>
+  <si>
+    <t>steiner_h2</t>
+  </si>
+  <si>
+    <t>roth_o2</t>
+  </si>
+  <si>
+    <t>standfuss_mr</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -4099,11 +4099,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4407,14 +4410,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C162" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H176" sqref="H176"/>
+    <sheetView tabSelected="1" topLeftCell="C144" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H165" sqref="H165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="36.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" customWidth="1"/>
+    <col min="6" max="6" width="47.33203125" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
     <col min="11" max="11" width="15.88671875" customWidth="1"/>
   </cols>
@@ -4436,16 +4439,16 @@
         <v>440</v>
       </c>
       <c r="G1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="H1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="I1" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="J1" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4465,13 +4468,13 @@
         <v>441</v>
       </c>
       <c r="G2" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="H2" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="I2" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4491,13 +4494,13 @@
         <v>442</v>
       </c>
       <c r="G3" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="H3" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="I3" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4517,13 +4520,13 @@
         <v>443</v>
       </c>
       <c r="G4" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="H4" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="I4" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4543,13 +4546,13 @@
         <v>444</v>
       </c>
       <c r="G5" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H5" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="I5" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4569,13 +4572,13 @@
         <v>445</v>
       </c>
       <c r="G6" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="H6" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="I6" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4595,13 +4598,13 @@
         <v>446</v>
       </c>
       <c r="G7" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="H7" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="I7" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4621,13 +4624,13 @@
         <v>447</v>
       </c>
       <c r="G8" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H8" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="I8" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4647,13 +4650,13 @@
         <v>448</v>
       </c>
       <c r="G9" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H9" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="I9" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4673,13 +4676,13 @@
         <v>449</v>
       </c>
       <c r="G10" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H10" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="I10" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4699,13 +4702,13 @@
         <v>450</v>
       </c>
       <c r="G11" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="H11" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="I11" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4725,13 +4728,13 @@
         <v>451</v>
       </c>
       <c r="G12" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="H12" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="I12" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4751,13 +4754,13 @@
         <v>452</v>
       </c>
       <c r="G13" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="H13" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="I13" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4777,13 +4780,13 @@
         <v>453</v>
       </c>
       <c r="G14" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="H14" t="s">
-        <v>1322</v>
+        <v>1343</v>
       </c>
       <c r="I14" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4803,13 +4806,13 @@
         <v>454</v>
       </c>
       <c r="G15" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="H15" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="I15" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -4829,13 +4832,13 @@
         <v>455</v>
       </c>
       <c r="G16" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H16" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="I16" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4855,13 +4858,13 @@
         <v>456</v>
       </c>
       <c r="G17" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="H17" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="I17" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -4881,16 +4884,16 @@
         <v>457</v>
       </c>
       <c r="G18" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H18" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="I18" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="J18" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4910,13 +4913,13 @@
         <v>458</v>
       </c>
       <c r="G19" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="H19" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="I19" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4936,16 +4939,16 @@
         <v>459</v>
       </c>
       <c r="G20" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="H20" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="I20" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="J20" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4965,13 +4968,13 @@
         <v>460</v>
       </c>
       <c r="G21" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="H21" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="I21" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -4991,13 +4994,13 @@
         <v>461</v>
       </c>
       <c r="G22" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="H22" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="I22" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -5017,13 +5020,13 @@
         <v>462</v>
       </c>
       <c r="G23" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="H23" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="I23" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -5043,13 +5046,13 @@
         <v>463</v>
       </c>
       <c r="G24" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="H24" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="I24" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -5069,13 +5072,13 @@
         <v>464</v>
       </c>
       <c r="G25" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="H25" t="s">
-        <v>1322</v>
+        <v>1343</v>
       </c>
       <c r="I25" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -5095,13 +5098,13 @@
         <v>465</v>
       </c>
       <c r="G26" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="H26" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="I26" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -5121,16 +5124,16 @@
         <v>466</v>
       </c>
       <c r="G27" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H27" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="I27" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="J27" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -5150,13 +5153,13 @@
         <v>467</v>
       </c>
       <c r="G28" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="H28" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="I28" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -5176,13 +5179,13 @@
         <v>468</v>
       </c>
       <c r="G29" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="H29" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="I29" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -5202,13 +5205,13 @@
         <v>469</v>
       </c>
       <c r="G30" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="H30" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="I30" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -5228,13 +5231,13 @@
         <v>470</v>
       </c>
       <c r="G31" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="H31" t="s">
-        <v>1184</v>
+        <v>1344</v>
       </c>
       <c r="I31" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5254,13 +5257,13 @@
         <v>471</v>
       </c>
       <c r="G32" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="H32" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="I32" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -5280,13 +5283,13 @@
         <v>472</v>
       </c>
       <c r="G33" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="H33" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="I33" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -5306,13 +5309,13 @@
         <v>473</v>
       </c>
       <c r="G34" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="H34" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="I34" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -5332,13 +5335,13 @@
         <v>474</v>
       </c>
       <c r="G35" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="H35" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
       <c r="I35" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -5358,13 +5361,13 @@
         <v>475</v>
       </c>
       <c r="G36" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="H36" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
       <c r="I36" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -5384,13 +5387,13 @@
         <v>476</v>
       </c>
       <c r="G37" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="H37" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="I37" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -5410,13 +5413,13 @@
         <v>477</v>
       </c>
       <c r="G38" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="H38" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="I38" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -5436,13 +5439,13 @@
         <v>478</v>
       </c>
       <c r="G39" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="H39" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="I39" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -5462,13 +5465,13 @@
         <v>479</v>
       </c>
       <c r="G40" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H40" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="I40" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -5488,13 +5491,13 @@
         <v>480</v>
       </c>
       <c r="G41" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="H41" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="I41" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -5514,13 +5517,13 @@
         <v>481</v>
       </c>
       <c r="G42" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="H42" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="I42" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -5540,13 +5543,13 @@
         <v>482</v>
       </c>
       <c r="G43" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="H43" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="I43" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -5566,13 +5569,13 @@
         <v>483</v>
       </c>
       <c r="G44" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="H44" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="I44" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -5592,13 +5595,13 @@
         <v>484</v>
       </c>
       <c r="G45" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="H45" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="I45" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -5618,13 +5621,13 @@
         <v>485</v>
       </c>
       <c r="G46" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H46" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="I46" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -5644,13 +5647,13 @@
         <v>486</v>
       </c>
       <c r="G47" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="H47" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="I47" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -5670,13 +5673,13 @@
         <v>487</v>
       </c>
       <c r="G48" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="H48" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="I48" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -5696,13 +5699,13 @@
         <v>488</v>
       </c>
       <c r="G49" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H49" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="I49" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -5722,13 +5725,13 @@
         <v>489</v>
       </c>
       <c r="G50" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H50" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="I50" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -5748,13 +5751,13 @@
         <v>490</v>
       </c>
       <c r="G51" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H51" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="I51" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -5774,13 +5777,13 @@
         <v>491</v>
       </c>
       <c r="G52" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="H52" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="I52" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -5800,13 +5803,13 @@
         <v>492</v>
       </c>
       <c r="G53" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="H53" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="I53" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -5826,16 +5829,16 @@
         <v>493</v>
       </c>
       <c r="G54" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="H54" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="I54" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="J54" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -5855,16 +5858,16 @@
         <v>494</v>
       </c>
       <c r="G55" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H55" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="I55" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="J55" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -5884,16 +5887,16 @@
         <v>495</v>
       </c>
       <c r="G56" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H56" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="I56" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="J56" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -5913,13 +5916,13 @@
         <v>496</v>
       </c>
       <c r="G57" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="H57" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="I57" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -5939,13 +5942,13 @@
         <v>497</v>
       </c>
       <c r="G58" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H58" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="I58" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -5965,13 +5968,13 @@
         <v>498</v>
       </c>
       <c r="G59" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H59" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="I59" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -5991,13 +5994,13 @@
         <v>499</v>
       </c>
       <c r="G60" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H60" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="I60" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -6017,13 +6020,13 @@
         <v>500</v>
       </c>
       <c r="G61" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H61" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="I61" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -6043,13 +6046,13 @@
         <v>501</v>
       </c>
       <c r="G62" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="H62" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
       <c r="I62" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -6069,13 +6072,13 @@
         <v>502</v>
       </c>
       <c r="G63" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H63" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="I63" t="s">
-        <v>1337</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -6095,13 +6098,13 @@
         <v>503</v>
       </c>
       <c r="G64" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H64" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="I64" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -6121,13 +6124,13 @@
         <v>504</v>
       </c>
       <c r="G65" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H65" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="I65" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -6147,13 +6150,13 @@
         <v>505</v>
       </c>
       <c r="G66" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="H66" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="I66" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -6173,13 +6176,13 @@
         <v>506</v>
       </c>
       <c r="G67" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H67" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="I67" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -6199,13 +6202,13 @@
         <v>507</v>
       </c>
       <c r="G68" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H68" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="I68" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -6225,16 +6228,16 @@
         <v>508</v>
       </c>
       <c r="G69" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="H69" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="I69" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="J69" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -6254,13 +6257,13 @@
         <v>509</v>
       </c>
       <c r="G70" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H70" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="I70" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -6280,13 +6283,13 @@
         <v>510</v>
       </c>
       <c r="G71" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="H71" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="I71" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -6306,13 +6309,13 @@
         <v>511</v>
       </c>
       <c r="G72" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="H72" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="I72" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -6335,13 +6338,13 @@
         <v>512</v>
       </c>
       <c r="G73" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="H73" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="I73" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -6364,13 +6367,13 @@
         <v>513</v>
       </c>
       <c r="G74" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H74" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="I74" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -6390,13 +6393,13 @@
         <v>514</v>
       </c>
       <c r="G75" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="H75" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="I75" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -6416,13 +6419,13 @@
         <v>515</v>
       </c>
       <c r="G76" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="H76" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="I76" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -6442,13 +6445,13 @@
         <v>516</v>
       </c>
       <c r="G77" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H77" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="I77" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -6471,13 +6474,13 @@
         <v>517</v>
       </c>
       <c r="G78" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="H78" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="I78" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -6500,13 +6503,13 @@
         <v>518</v>
       </c>
       <c r="G79" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="H79" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="I79" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -6526,13 +6529,13 @@
         <v>519</v>
       </c>
       <c r="G80" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="H80" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="I80" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -6552,13 +6555,13 @@
         <v>520</v>
       </c>
       <c r="G81" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="H81" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="I81" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -6578,13 +6581,13 @@
         <v>521</v>
       </c>
       <c r="G82" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="H82" t="s">
-        <v>1323</v>
+        <v>1342</v>
       </c>
       <c r="I82" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -6604,13 +6607,13 @@
         <v>522</v>
       </c>
       <c r="G83" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H83" t="s">
-        <v>1323</v>
+        <v>1342</v>
       </c>
       <c r="I83" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -6630,13 +6633,13 @@
         <v>523</v>
       </c>
       <c r="G84" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H84" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="I84" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -6656,13 +6659,13 @@
         <v>524</v>
       </c>
       <c r="G85" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H85" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="I85" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -6682,13 +6685,13 @@
         <v>525</v>
       </c>
       <c r="G86" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="H86" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="I86" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -6708,13 +6711,13 @@
         <v>526</v>
       </c>
       <c r="G87" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="H87" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="I87" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -6734,13 +6737,13 @@
         <v>527</v>
       </c>
       <c r="G88" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="H88" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="I88" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -6760,13 +6763,13 @@
         <v>528</v>
       </c>
       <c r="G89" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="H89" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="I89" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -6786,13 +6789,13 @@
         <v>529</v>
       </c>
       <c r="G90" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H90" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="I90" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -6812,13 +6815,13 @@
         <v>530</v>
       </c>
       <c r="G91" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="H91" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="I91" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -6838,13 +6841,13 @@
         <v>531</v>
       </c>
       <c r="G92" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="H92" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="I92" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -6864,13 +6867,13 @@
         <v>532</v>
       </c>
       <c r="G93" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="H93" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="I93" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -6890,13 +6893,13 @@
         <v>533</v>
       </c>
       <c r="G94" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H94" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="I94" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -6916,16 +6919,16 @@
         <v>534</v>
       </c>
       <c r="G95" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="H95" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="I95" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="J95" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -6945,16 +6948,16 @@
         <v>535</v>
       </c>
       <c r="G96" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="H96" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="I96" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="J96" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -6974,16 +6977,16 @@
         <v>536</v>
       </c>
       <c r="G97" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="H97" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="I97" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="J97" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -7003,16 +7006,16 @@
         <v>537</v>
       </c>
       <c r="G98" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="H98" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="I98" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="J98" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -7032,16 +7035,16 @@
         <v>538</v>
       </c>
       <c r="G99" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H99" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="I99" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="J99" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -7061,13 +7064,13 @@
         <v>539</v>
       </c>
       <c r="G100" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H100" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="I100" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -7087,16 +7090,16 @@
         <v>540</v>
       </c>
       <c r="G101" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="H101" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="I101" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="J101" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -7116,16 +7119,16 @@
         <v>541</v>
       </c>
       <c r="G102" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="H102" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="I102" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="J102" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -7145,16 +7148,16 @@
         <v>542</v>
       </c>
       <c r="G103" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="H103" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="I103" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="J103" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -7174,13 +7177,13 @@
         <v>543</v>
       </c>
       <c r="G104" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="H104" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="I104" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -7200,13 +7203,13 @@
         <v>544</v>
       </c>
       <c r="G105" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H105" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="I105" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -7226,13 +7229,13 @@
         <v>545</v>
       </c>
       <c r="G106" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="H106" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="I106" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -7252,13 +7255,13 @@
         <v>546</v>
       </c>
       <c r="G107" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="H107" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="I107" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -7278,13 +7281,13 @@
         <v>547</v>
       </c>
       <c r="G108" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H108" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="I108" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -7304,13 +7307,13 @@
         <v>548</v>
       </c>
       <c r="G109" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H109" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="I109" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -7330,13 +7333,13 @@
         <v>549</v>
       </c>
       <c r="G110" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="H110" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="I110" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -7356,13 +7359,13 @@
         <v>550</v>
       </c>
       <c r="G111" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="H111" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="I111" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -7382,13 +7385,13 @@
         <v>551</v>
       </c>
       <c r="G112" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H112" t="s">
-        <v>1208</v>
+        <v>1345</v>
       </c>
       <c r="I112" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
@@ -7408,13 +7411,13 @@
         <v>552</v>
       </c>
       <c r="G113" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H113" t="s">
-        <v>1208</v>
+        <v>1345</v>
       </c>
       <c r="I113" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -7434,13 +7437,13 @@
         <v>553</v>
       </c>
       <c r="G114" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H114" t="s">
-        <v>1208</v>
+        <v>1345</v>
       </c>
       <c r="I114" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
@@ -7460,19 +7463,19 @@
         <v>554</v>
       </c>
       <c r="G115" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H115" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="I115" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="K115" t="s">
-        <v>1339</v>
+        <v>1330</v>
       </c>
       <c r="L115" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
@@ -7492,13 +7495,13 @@
         <v>555</v>
       </c>
       <c r="G116" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H116" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="I116" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -7518,13 +7521,13 @@
         <v>556</v>
       </c>
       <c r="G117" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H117" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="I117" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
@@ -7544,13 +7547,13 @@
         <v>557</v>
       </c>
       <c r="G118" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H118" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="I118" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
@@ -7570,13 +7573,13 @@
         <v>558</v>
       </c>
       <c r="G119" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="H119" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="I119" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
@@ -7596,13 +7599,13 @@
         <v>559</v>
       </c>
       <c r="G120" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H120" t="s">
-        <v>1323</v>
+        <v>1342</v>
       </c>
       <c r="I120" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -7622,13 +7625,13 @@
         <v>560</v>
       </c>
       <c r="G121" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="H121" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="I121" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -7648,13 +7651,13 @@
         <v>561</v>
       </c>
       <c r="G122" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H122" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="I122" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
@@ -7674,13 +7677,13 @@
         <v>562</v>
       </c>
       <c r="G123" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="H123" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="I123" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
@@ -7700,13 +7703,13 @@
         <v>563</v>
       </c>
       <c r="G124" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="H124" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="I124" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -7726,13 +7729,13 @@
         <v>564</v>
       </c>
       <c r="G125" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="H125" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="I125" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
@@ -7752,19 +7755,19 @@
         <v>519</v>
       </c>
       <c r="G126" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="H126" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="I126" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="K126" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="L126" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -7784,13 +7787,13 @@
         <v>565</v>
       </c>
       <c r="G127" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H127" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="I127" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -7810,13 +7813,13 @@
         <v>566</v>
       </c>
       <c r="G128" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="H128" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="I128" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -7836,13 +7839,13 @@
         <v>567</v>
       </c>
       <c r="G129" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="H129" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="I129" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -7862,13 +7865,13 @@
         <v>568</v>
       </c>
       <c r="G130" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H130" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="I130" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -7888,13 +7891,13 @@
         <v>569</v>
       </c>
       <c r="G131" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H131" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="I131" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -7914,13 +7917,13 @@
         <v>570</v>
       </c>
       <c r="G132" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="H132" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="I132" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -7940,13 +7943,13 @@
         <v>571</v>
       </c>
       <c r="G133" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="H133" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="I133" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -7966,13 +7969,13 @@
         <v>572</v>
       </c>
       <c r="G134" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H134" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="I134" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -7992,13 +7995,13 @@
         <v>573</v>
       </c>
       <c r="G135" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="H135" t="s">
-        <v>1324</v>
+        <v>1316</v>
       </c>
       <c r="I135" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -8018,13 +8021,13 @@
         <v>574</v>
       </c>
       <c r="G136" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H136" t="s">
-        <v>1324</v>
+        <v>1316</v>
       </c>
       <c r="I136" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -8044,13 +8047,13 @@
         <v>575</v>
       </c>
       <c r="G137" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H137" t="s">
-        <v>1325</v>
+        <v>1317</v>
       </c>
       <c r="I137" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -8070,13 +8073,13 @@
         <v>576</v>
       </c>
       <c r="G138" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H138" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="I138" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -8096,13 +8099,13 @@
         <v>577</v>
       </c>
       <c r="G139" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="H139" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="I139" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -8122,13 +8125,13 @@
         <v>578</v>
       </c>
       <c r="G140" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="H140" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="I140" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -8148,13 +8151,13 @@
         <v>579</v>
       </c>
       <c r="G141" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H141" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="I141" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -8174,13 +8177,13 @@
         <v>580</v>
       </c>
       <c r="G142" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="H142" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="I142" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -8200,13 +8203,13 @@
         <v>581</v>
       </c>
       <c r="G143" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="H143" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="I143" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -8226,13 +8229,13 @@
         <v>582</v>
       </c>
       <c r="G144" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="H144" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="I144" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
@@ -8252,13 +8255,13 @@
         <v>583</v>
       </c>
       <c r="G145" t="s">
-        <v>984</v>
-      </c>
-      <c r="H145" t="s">
-        <v>1304</v>
+        <v>982</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>1341</v>
       </c>
       <c r="I145" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -8278,13 +8281,13 @@
         <v>584</v>
       </c>
       <c r="G146" t="s">
-        <v>928</v>
-      </c>
-      <c r="H146" t="s">
-        <v>1304</v>
+        <v>926</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>1341</v>
       </c>
       <c r="I146" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
@@ -8304,13 +8307,13 @@
         <v>585</v>
       </c>
       <c r="G147" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="H147" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="I147" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
@@ -8330,19 +8333,19 @@
         <v>586</v>
       </c>
       <c r="G148" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="H148" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="I148" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
       <c r="K148" t="s">
-        <v>1340</v>
+        <v>1331</v>
       </c>
       <c r="L148" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
@@ -8362,13 +8365,13 @@
         <v>587</v>
       </c>
       <c r="G149" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="H149" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="I149" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -8388,13 +8391,13 @@
         <v>588</v>
       </c>
       <c r="G150" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="H150" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="I150" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -8414,13 +8417,13 @@
         <v>589</v>
       </c>
       <c r="G151" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="H151" t="s">
-        <v>1341</v>
+        <v>1332</v>
       </c>
       <c r="I151" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -8440,13 +8443,13 @@
         <v>590</v>
       </c>
       <c r="G152" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="H152" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="I152" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -8466,13 +8469,13 @@
         <v>591</v>
       </c>
       <c r="G153" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="H153" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="I153" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
@@ -8492,13 +8495,13 @@
         <v>592</v>
       </c>
       <c r="G154" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H154" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="I154" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
@@ -8518,13 +8521,13 @@
         <v>593</v>
       </c>
       <c r="G155" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H155" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="I155" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -8544,13 +8547,13 @@
         <v>594</v>
       </c>
       <c r="G156" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="H156" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="I156" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -8570,13 +8573,13 @@
         <v>595</v>
       </c>
       <c r="G157" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H157" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="I157" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
@@ -8596,13 +8599,13 @@
         <v>596</v>
       </c>
       <c r="G158" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="H158" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="I158" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
@@ -8622,13 +8625,13 @@
         <v>597</v>
       </c>
       <c r="G159" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="H159" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="I159" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
@@ -8648,13 +8651,13 @@
         <v>598</v>
       </c>
       <c r="G160" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="H160" t="s">
-        <v>1327</v>
+        <v>1347</v>
       </c>
       <c r="I160" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -8674,13 +8677,13 @@
         <v>599</v>
       </c>
       <c r="G161" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="H161" t="s">
-        <v>1327</v>
+        <v>1347</v>
       </c>
       <c r="I161" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -8700,13 +8703,13 @@
         <v>600</v>
       </c>
       <c r="G162" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="H162" t="s">
-        <v>1327</v>
+        <v>1347</v>
       </c>
       <c r="I162" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -8726,13 +8729,13 @@
         <v>601</v>
       </c>
       <c r="G163" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="H163" t="s">
-        <v>1327</v>
+        <v>1347</v>
       </c>
       <c r="I163" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -8752,13 +8755,13 @@
         <v>602</v>
       </c>
       <c r="G164" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="H164" t="s">
-        <v>1327</v>
+        <v>1347</v>
       </c>
       <c r="I164" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -8778,13 +8781,13 @@
         <v>603</v>
       </c>
       <c r="G165" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H165" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I165" t="s">
         <v>1326</v>
-      </c>
-      <c r="I165" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -8804,13 +8807,13 @@
         <v>600</v>
       </c>
       <c r="G166" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="H166" t="s">
+        <v>1318</v>
+      </c>
+      <c r="I166" t="s">
         <v>1326</v>
-      </c>
-      <c r="I166" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -8830,13 +8833,13 @@
         <v>604</v>
       </c>
       <c r="G167" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H167" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="I167" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -8856,13 +8859,13 @@
         <v>605</v>
       </c>
       <c r="G168" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="H168" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="I168" t="s">
-        <v>1334</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -8882,13 +8885,13 @@
         <v>606</v>
       </c>
       <c r="G169" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="H169" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="I169" t="s">
-        <v>1334</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -8908,13 +8911,13 @@
         <v>607</v>
       </c>
       <c r="G170" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="H170" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="I170" t="s">
-        <v>1334</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -8934,13 +8937,13 @@
         <v>608</v>
       </c>
       <c r="G171" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="H171" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="I171" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -8960,13 +8963,13 @@
         <v>609</v>
       </c>
       <c r="G172" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="H172" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="I172" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -8986,13 +8989,13 @@
         <v>610</v>
       </c>
       <c r="G173" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H173" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="I173" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -9012,13 +9015,13 @@
         <v>611</v>
       </c>
       <c r="G174" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="H174" t="s">
-        <v>1347</v>
+        <v>1338</v>
       </c>
       <c r="I174" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -9038,13 +9041,13 @@
         <v>612</v>
       </c>
       <c r="G175" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="H175" t="s">
-        <v>1347</v>
+        <v>1338</v>
       </c>
       <c r="I175" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -9064,13 +9067,13 @@
         <v>613</v>
       </c>
       <c r="G176" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="H176" t="s">
-        <v>1347</v>
+        <v>1338</v>
       </c>
       <c r="I176" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
@@ -9090,13 +9093,13 @@
         <v>614</v>
       </c>
       <c r="G177" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="H177" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="I177" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
@@ -9116,13 +9119,13 @@
         <v>615</v>
       </c>
       <c r="G178" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="H178" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="I178" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
@@ -9142,13 +9145,13 @@
         <v>616</v>
       </c>
       <c r="G179" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="H179" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="I179" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
@@ -9168,13 +9171,13 @@
         <v>617</v>
       </c>
       <c r="G180" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="H180" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="I180" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -9194,10 +9197,10 @@
         <v>618</v>
       </c>
       <c r="G181" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="H181" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -9217,10 +9220,10 @@
         <v>619</v>
       </c>
       <c r="G182" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="H182" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -9240,10 +9243,10 @@
         <v>620</v>
       </c>
       <c r="G183" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H183" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -9263,10 +9266,10 @@
         <v>621</v>
       </c>
       <c r="G184" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="H184" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
@@ -9286,13 +9289,13 @@
         <v>622</v>
       </c>
       <c r="G185" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="H185" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="I185" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -9312,13 +9315,13 @@
         <v>623</v>
       </c>
       <c r="G186" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="H186" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="I186" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -9338,13 +9341,13 @@
         <v>624</v>
       </c>
       <c r="G187" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="H187" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="I187" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -9364,13 +9367,13 @@
         <v>625</v>
       </c>
       <c r="G188" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="H188" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="I188" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
@@ -9390,13 +9393,13 @@
         <v>626</v>
       </c>
       <c r="G189" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="H189" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="I189" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
@@ -9416,13 +9419,13 @@
         <v>627</v>
       </c>
       <c r="G190" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="H190" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="I190" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
@@ -9442,13 +9445,13 @@
         <v>628</v>
       </c>
       <c r="G191" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="H191" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="I191" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -9468,13 +9471,13 @@
         <v>629</v>
       </c>
       <c r="G192" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="H192" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="I192" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -9494,13 +9497,13 @@
         <v>630</v>
       </c>
       <c r="G193" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="H193" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="I193" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -9520,13 +9523,13 @@
         <v>631</v>
       </c>
       <c r="G194" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H194" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="I194" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -9546,13 +9549,13 @@
         <v>632</v>
       </c>
       <c r="G195" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="H195" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="I195" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -9572,13 +9575,13 @@
         <v>633</v>
       </c>
       <c r="G196" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="H196" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="I196" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -9598,13 +9601,13 @@
         <v>634</v>
       </c>
       <c r="G197" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="H197" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="I197" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -9624,16 +9627,16 @@
         <v>635</v>
       </c>
       <c r="G198" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="H198" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="I198" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="J198" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -9653,16 +9656,16 @@
         <v>636</v>
       </c>
       <c r="G199" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H199" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="I199" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="J199" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -9682,16 +9685,16 @@
         <v>637</v>
       </c>
       <c r="G200" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H200" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="I200" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="J200" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -9711,16 +9714,16 @@
         <v>638</v>
       </c>
       <c r="G201" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="H201" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="I201" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="J201" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
@@ -9740,16 +9743,16 @@
         <v>639</v>
       </c>
       <c r="G202" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="H202" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="I202" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="J202" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -9769,16 +9772,16 @@
         <v>640</v>
       </c>
       <c r="G203" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H203" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="I203" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="J203" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -9798,13 +9801,13 @@
         <v>641</v>
       </c>
       <c r="G204" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="H204" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="I204" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -9824,13 +9827,13 @@
         <v>642</v>
       </c>
       <c r="G205" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H205" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="I205" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -9850,13 +9853,13 @@
         <v>643</v>
       </c>
       <c r="G206" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="H206" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="I206" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -9876,13 +9879,13 @@
         <v>644</v>
       </c>
       <c r="G207" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="H207" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="I207" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -9902,13 +9905,13 @@
         <v>645</v>
       </c>
       <c r="G208" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="H208" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="I208" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -9928,13 +9931,13 @@
         <v>646</v>
       </c>
       <c r="G209" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="H209" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="I209" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -9954,13 +9957,13 @@
         <v>647</v>
       </c>
       <c r="G210" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H210" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="I210" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -9980,13 +9983,13 @@
         <v>648</v>
       </c>
       <c r="G211" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="H211" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="I211" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -10006,13 +10009,13 @@
         <v>649</v>
       </c>
       <c r="G212" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H212" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="I212" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -10032,13 +10035,13 @@
         <v>650</v>
       </c>
       <c r="G213" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H213" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="I213" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -10058,13 +10061,13 @@
         <v>651</v>
       </c>
       <c r="G214" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="H214" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="I214" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -10084,13 +10087,13 @@
         <v>652</v>
       </c>
       <c r="G215" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="H215" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="I215" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -10110,13 +10113,13 @@
         <v>653</v>
       </c>
       <c r="G216" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="H216" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="I216" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -10136,13 +10139,13 @@
         <v>654</v>
       </c>
       <c r="G217" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="H217" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="I217" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -10162,13 +10165,13 @@
         <v>655</v>
       </c>
       <c r="G218" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="H218" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="I218" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -10188,13 +10191,13 @@
         <v>656</v>
       </c>
       <c r="G219" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H219" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="I219" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -10214,13 +10217,13 @@
         <v>657</v>
       </c>
       <c r="G220" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="H220" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="I220" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -10240,13 +10243,13 @@
         <v>658</v>
       </c>
       <c r="G221" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="H221" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="I221" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -10266,13 +10269,13 @@
         <v>659</v>
       </c>
       <c r="G222" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="H222" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="I222" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -10292,13 +10295,13 @@
         <v>660</v>
       </c>
       <c r="G223" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="H223" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="I223" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -10318,13 +10321,13 @@
         <v>661</v>
       </c>
       <c r="G224" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="H224" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="I224" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -10344,13 +10347,13 @@
         <v>662</v>
       </c>
       <c r="G225" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="H225" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="I225" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -10370,13 +10373,13 @@
         <v>663</v>
       </c>
       <c r="G226" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="H226" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="I226" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -10396,13 +10399,13 @@
         <v>664</v>
       </c>
       <c r="G227" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H227" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="I227" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -10422,13 +10425,13 @@
         <v>665</v>
       </c>
       <c r="G228" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="H228" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="I228" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -10448,13 +10451,13 @@
         <v>666</v>
       </c>
       <c r="G229" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="H229" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="I229" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -10474,13 +10477,13 @@
         <v>667</v>
       </c>
       <c r="G230" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H230" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="I230" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -10500,13 +10503,13 @@
         <v>668</v>
       </c>
       <c r="G231" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="H231" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="I231" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -10526,13 +10529,13 @@
         <v>669</v>
       </c>
       <c r="G232" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="H232" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="I232" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -10552,16 +10555,16 @@
         <v>670</v>
       </c>
       <c r="G233" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="H233" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
       <c r="I233" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="J233" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -10581,13 +10584,13 @@
         <v>671</v>
       </c>
       <c r="G234" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="H234" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="I234" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -10607,13 +10610,13 @@
         <v>672</v>
       </c>
       <c r="G235" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="H235" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="I235" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -10633,13 +10636,13 @@
         <v>673</v>
       </c>
       <c r="G236" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H236" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="I236" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -10659,16 +10662,16 @@
         <v>674</v>
       </c>
       <c r="G237" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="H237" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
       <c r="I237" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="J237" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -10688,16 +10691,16 @@
         <v>675</v>
       </c>
       <c r="G238" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H238" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
       <c r="I238" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="J238" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -10717,13 +10720,13 @@
         <v>676</v>
       </c>
       <c r="G239" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="H239" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="I239" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -10743,13 +10746,13 @@
         <v>677</v>
       </c>
       <c r="G240" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="H240" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="I240" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -10769,13 +10772,13 @@
         <v>678</v>
       </c>
       <c r="G241" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="H241" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="I241" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
@@ -10795,16 +10798,16 @@
         <v>679</v>
       </c>
       <c r="G242" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="H242" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
       <c r="I242" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
       <c r="J242" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -10824,13 +10827,13 @@
         <v>680</v>
       </c>
       <c r="G243" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="H243" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="I243" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -10850,13 +10853,13 @@
         <v>681</v>
       </c>
       <c r="G244" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="H244" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="I244" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -10876,13 +10879,13 @@
         <v>682</v>
       </c>
       <c r="G245" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="H245" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="I245" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -10902,13 +10905,13 @@
         <v>683</v>
       </c>
       <c r="G246" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="H246" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="I246" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -10928,13 +10931,13 @@
         <v>684</v>
       </c>
       <c r="G247" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="H247" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="I247" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -10954,13 +10957,13 @@
         <v>685</v>
       </c>
       <c r="G248" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H248" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="I248" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -10980,13 +10983,13 @@
         <v>686</v>
       </c>
       <c r="G249" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="H249" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="I249" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -11006,13 +11009,13 @@
         <v>687</v>
       </c>
       <c r="G250" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H250" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="I250" t="s">
-        <v>1342</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
@@ -11032,13 +11035,13 @@
         <v>688</v>
       </c>
       <c r="G251" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="H251" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="I251" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -11058,13 +11061,13 @@
         <v>689</v>
       </c>
       <c r="G252" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="H252" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="I252" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -11084,13 +11087,13 @@
         <v>690</v>
       </c>
       <c r="G253" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="H253" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="I253" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -11110,13 +11113,13 @@
         <v>691</v>
       </c>
       <c r="G254" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="H254" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="I254" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -11136,13 +11139,13 @@
         <v>692</v>
       </c>
       <c r="G255" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="H255" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="I255" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -11162,13 +11165,13 @@
         <v>693</v>
       </c>
       <c r="G256" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="H256" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="I256" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -11188,13 +11191,13 @@
         <v>694</v>
       </c>
       <c r="G257" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="H257" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="I257" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -11214,13 +11217,13 @@
         <v>695</v>
       </c>
       <c r="G258" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H258" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="I258" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11240,13 +11243,13 @@
         <v>696</v>
       </c>
       <c r="G259" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="H259" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="I259" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11266,13 +11269,13 @@
         <v>697</v>
       </c>
       <c r="G260" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H260" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="I260" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11292,13 +11295,13 @@
         <v>698</v>
       </c>
       <c r="G261" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="H261" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="I261" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11318,13 +11321,13 @@
         <v>699</v>
       </c>
       <c r="G262" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H262" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="I262" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11344,13 +11347,13 @@
         <v>700</v>
       </c>
       <c r="G263" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="H263" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="I263" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11370,13 +11373,13 @@
         <v>701</v>
       </c>
       <c r="G264" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="H264" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="I264" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11396,13 +11399,13 @@
         <v>702</v>
       </c>
       <c r="G265" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="H265" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="I265" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11422,13 +11425,13 @@
         <v>703</v>
       </c>
       <c r="G266" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="H266" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="I266" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11448,13 +11451,13 @@
         <v>704</v>
       </c>
       <c r="G267" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="H267" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="I267" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11474,13 +11477,13 @@
         <v>705</v>
       </c>
       <c r="G268" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="H268" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="I268" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11500,13 +11503,13 @@
         <v>706</v>
       </c>
       <c r="G269" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="H269" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="I269" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11526,13 +11529,13 @@
         <v>707</v>
       </c>
       <c r="G270" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="H270" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="I270" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11552,13 +11555,13 @@
         <v>708</v>
       </c>
       <c r="G271" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="H271" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="I271" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11578,13 +11581,13 @@
         <v>709</v>
       </c>
       <c r="G272" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H272" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
       <c r="I272" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -11604,13 +11607,13 @@
         <v>710</v>
       </c>
       <c r="G273" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="H273" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="I273" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -11630,13 +11633,13 @@
         <v>711</v>
       </c>
       <c r="G274" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="H274" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="I274" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -11656,13 +11659,13 @@
         <v>712</v>
       </c>
       <c r="G275" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="H275" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="I275" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -11682,13 +11685,13 @@
         <v>713</v>
       </c>
       <c r="G276" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="H276" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="I276" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -11708,13 +11711,13 @@
         <v>714</v>
       </c>
       <c r="G277" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="H277" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="I277" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -11734,13 +11737,13 @@
         <v>715</v>
       </c>
       <c r="G278" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="H278" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="I278" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -11760,13 +11763,13 @@
         <v>716</v>
       </c>
       <c r="G279" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H279" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="I279" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -11786,13 +11789,13 @@
         <v>717</v>
       </c>
       <c r="G280" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="H280" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="I280" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -11812,13 +11815,13 @@
         <v>718</v>
       </c>
       <c r="G281" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="H281" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="I281" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -11838,13 +11841,13 @@
         <v>719</v>
       </c>
       <c r="G282" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="H282" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="I282" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -11861,16 +11864,16 @@
         <v>438</v>
       </c>
       <c r="F283" t="s">
-        <v>720</v>
+        <v>1340</v>
       </c>
       <c r="G283" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="H283" t="s">
-        <v>1248</v>
+        <v>1244</v>
       </c>
       <c r="I283" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -11887,16 +11890,16 @@
         <v>438</v>
       </c>
       <c r="F284" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G284" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="H284" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="I284" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -11913,16 +11916,16 @@
         <v>438</v>
       </c>
       <c r="F285" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G285" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H285" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="I285" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -11939,16 +11942,16 @@
         <v>438</v>
       </c>
       <c r="F286" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G286" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="H286" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="I286" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -11965,16 +11968,16 @@
         <v>438</v>
       </c>
       <c r="F287" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G287" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="H287" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="I287" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -11991,16 +11994,16 @@
         <v>438</v>
       </c>
       <c r="F288" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G288" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="H288" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="I288" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -12017,16 +12020,16 @@
         <v>438</v>
       </c>
       <c r="F289" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G289" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="H289" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="I289" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -12043,16 +12046,16 @@
         <v>438</v>
       </c>
       <c r="F290" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G290" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="H290" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
       <c r="I290" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -12069,16 +12072,16 @@
         <v>438</v>
       </c>
       <c r="F291" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G291" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="H291" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="I291" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -12095,16 +12098,16 @@
         <v>438</v>
       </c>
       <c r="F292" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G292" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="H292" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="I292" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -12124,16 +12127,16 @@
         <v>438</v>
       </c>
       <c r="F293" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G293" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="H293" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="I293" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -12150,16 +12153,16 @@
         <v>438</v>
       </c>
       <c r="F294" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G294" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="H294" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="I294" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -12176,16 +12179,16 @@
         <v>438</v>
       </c>
       <c r="F295" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G295" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H295" t="s">
-        <v>1249</v>
+        <v>1245</v>
       </c>
       <c r="I295" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -12202,16 +12205,16 @@
         <v>438</v>
       </c>
       <c r="F296" t="s">
-        <v>733</v>
+        <v>1339</v>
       </c>
       <c r="G296" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H296" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="I296" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -12228,16 +12231,16 @@
         <v>438</v>
       </c>
       <c r="F297" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="G297" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="H297" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="I297" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -12254,16 +12257,16 @@
         <v>438</v>
       </c>
       <c r="F298" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="G298" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="H298" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="I298" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -12280,16 +12283,16 @@
         <v>438</v>
       </c>
       <c r="F299" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="G299" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="H299" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="I299" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -12306,16 +12309,16 @@
         <v>438</v>
       </c>
       <c r="F300" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="G300" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H300" t="s">
-        <v>1252</v>
+        <v>1248</v>
       </c>
       <c r="I300" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -12332,16 +12335,16 @@
         <v>438</v>
       </c>
       <c r="F301" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="G301" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="H301" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="I301" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -12358,16 +12361,16 @@
         <v>438</v>
       </c>
       <c r="F302" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G302" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="H302" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="I302" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -12384,16 +12387,16 @@
         <v>438</v>
       </c>
       <c r="F303" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G303" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="H303" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="I303" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -12410,16 +12413,16 @@
         <v>438</v>
       </c>
       <c r="F304" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G304" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="H304" t="s">
-        <v>1253</v>
+        <v>1249</v>
       </c>
       <c r="I304" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.3">
@@ -12436,16 +12439,16 @@
         <v>438</v>
       </c>
       <c r="F305" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G305" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H305" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="I305" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.3">
@@ -12462,16 +12465,16 @@
         <v>438</v>
       </c>
       <c r="F306" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="G306" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="H306" t="s">
-        <v>1254</v>
+        <v>1250</v>
       </c>
       <c r="I306" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.3">
@@ -12488,16 +12491,16 @@
         <v>438</v>
       </c>
       <c r="F307" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G307" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H307" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="I307" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.3">
@@ -12514,16 +12517,16 @@
         <v>438</v>
       </c>
       <c r="F308" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G308" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="H308" t="s">
-        <v>1255</v>
+        <v>1251</v>
       </c>
       <c r="I308" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.3">
@@ -12540,16 +12543,16 @@
         <v>438</v>
       </c>
       <c r="F309" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G309" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="H309" t="s">
-        <v>1250</v>
+        <v>1246</v>
       </c>
       <c r="I309" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.3">
@@ -12566,16 +12569,16 @@
         <v>438</v>
       </c>
       <c r="F310" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G310" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="H310" t="s">
-        <v>1251</v>
+        <v>1247</v>
       </c>
       <c r="I310" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.3">
@@ -12592,16 +12595,16 @@
         <v>438</v>
       </c>
       <c r="F311" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G311" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="H311" t="s">
-        <v>1343</v>
+        <v>1334</v>
       </c>
       <c r="I311" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.3">
@@ -12618,16 +12621,16 @@
         <v>438</v>
       </c>
       <c r="F312" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G312" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="H312" t="s">
-        <v>1343</v>
+        <v>1334</v>
       </c>
       <c r="I312" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.3">
@@ -12644,16 +12647,16 @@
         <v>438</v>
       </c>
       <c r="F313" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G313" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="H313" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="I313" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.3">
@@ -12670,16 +12673,16 @@
         <v>438</v>
       </c>
       <c r="F314" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G314" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="H314" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="I314" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.3">
@@ -12696,16 +12699,16 @@
         <v>438</v>
       </c>
       <c r="F315" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G315" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="H315" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="I315" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.3">
@@ -12725,16 +12728,16 @@
         <v>438</v>
       </c>
       <c r="F316" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="G316" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="H316" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="I316" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.3">
@@ -12751,16 +12754,16 @@
         <v>438</v>
       </c>
       <c r="F317" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G317" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H317" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="I317" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.3">
@@ -12777,16 +12780,16 @@
         <v>438</v>
       </c>
       <c r="F318" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G318" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="H318" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="I318" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.3">
@@ -12803,16 +12806,16 @@
         <v>438</v>
       </c>
       <c r="F319" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G319" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="H319" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="I319" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.3">
@@ -12829,16 +12832,16 @@
         <v>438</v>
       </c>
       <c r="F320" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G320" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H320" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="I320" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.3">
@@ -12855,16 +12858,16 @@
         <v>438</v>
       </c>
       <c r="F321" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="G321" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="H321" t="s">
-        <v>1343</v>
+        <v>1334</v>
       </c>
       <c r="I321" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.3">
@@ -12881,16 +12884,16 @@
         <v>438</v>
       </c>
       <c r="F322" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="G322" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="H322" t="s">
-        <v>1343</v>
+        <v>1334</v>
       </c>
       <c r="I322" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.3">
@@ -12907,16 +12910,16 @@
         <v>438</v>
       </c>
       <c r="F323" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="G323" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="H323" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="I323" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.3">
@@ -12933,16 +12936,16 @@
         <v>438</v>
       </c>
       <c r="F324" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="G324" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="H324" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="I324" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.3">
@@ -12959,16 +12962,16 @@
         <v>438</v>
       </c>
       <c r="F325" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="G325" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="H325" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="I325" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.3">
@@ -12985,16 +12988,16 @@
         <v>438</v>
       </c>
       <c r="F326" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="G326" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H326" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="I326" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.3">
@@ -13011,16 +13014,16 @@
         <v>438</v>
       </c>
       <c r="F327" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="G327" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="H327" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="I327" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.3">
@@ -13037,16 +13040,16 @@
         <v>438</v>
       </c>
       <c r="F328" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G328" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="H328" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="I328" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.3">
@@ -13063,16 +13066,16 @@
         <v>438</v>
       </c>
       <c r="F329" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G329" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="H329" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="I329" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -13089,16 +13092,16 @@
         <v>438</v>
       </c>
       <c r="F330" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="G330" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="H330" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="I330" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.3">
@@ -13118,16 +13121,16 @@
         <v>438</v>
       </c>
       <c r="F331" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="G331" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H331" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="I331" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.3">
@@ -13147,16 +13150,16 @@
         <v>438</v>
       </c>
       <c r="F332" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G332" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="H332" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="I332" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.3">
@@ -13173,16 +13176,16 @@
         <v>438</v>
       </c>
       <c r="F333" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="G333" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="H333" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="I333" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.3">
@@ -13199,16 +13202,16 @@
         <v>438</v>
       </c>
       <c r="F334" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="G334" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H334" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="I334" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -13225,16 +13228,16 @@
         <v>438</v>
       </c>
       <c r="F335" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="G335" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="H335" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="I335" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -13251,16 +13254,16 @@
         <v>438</v>
       </c>
       <c r="F336" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="G336" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H336" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="I336" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.3">
@@ -13277,16 +13280,16 @@
         <v>438</v>
       </c>
       <c r="F337" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="G337" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H337" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="I337" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.3">
@@ -13303,16 +13306,16 @@
         <v>438</v>
       </c>
       <c r="F338" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="G338" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H338" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="I338" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.3">
@@ -13329,16 +13332,16 @@
         <v>438</v>
       </c>
       <c r="F339" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="G339" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="H339" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="I339" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.3">
@@ -13355,16 +13358,16 @@
         <v>438</v>
       </c>
       <c r="F340" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="G340" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="H340" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="I340" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.3">
@@ -13381,16 +13384,16 @@
         <v>439</v>
       </c>
       <c r="F341" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="G341" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="H341" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="I341" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.3">
@@ -13407,16 +13410,16 @@
         <v>439</v>
       </c>
       <c r="F342" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="G342" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H342" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="I342" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.3">
@@ -13433,16 +13436,16 @@
         <v>439</v>
       </c>
       <c r="F343" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="G343" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="H343" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="I343" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.3">
@@ -13459,16 +13462,16 @@
         <v>439</v>
       </c>
       <c r="F344" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="G344" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="H344" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="I344" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.3">
@@ -13485,16 +13488,16 @@
         <v>439</v>
       </c>
       <c r="F345" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="G345" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="H345" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="I345" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.3">
@@ -13511,16 +13514,16 @@
         <v>439</v>
       </c>
       <c r="F346" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="G346" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="H346" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="I346" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.3">
@@ -13537,16 +13540,16 @@
         <v>439</v>
       </c>
       <c r="F347" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="G347" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="H347" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="I347" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.3">
@@ -13566,16 +13569,16 @@
         <v>439</v>
       </c>
       <c r="F348" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="G348" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H348" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="I348" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.3">
@@ -13595,16 +13598,16 @@
         <v>439</v>
       </c>
       <c r="F349" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G349" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H349" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="I349" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.3">
@@ -13624,16 +13627,16 @@
         <v>439</v>
       </c>
       <c r="F350" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G350" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="H350" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="I350" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.3">
@@ -13653,16 +13656,16 @@
         <v>439</v>
       </c>
       <c r="F351" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G351" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="H351" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="I351" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.3">
@@ -13682,13 +13685,13 @@
         <v>439</v>
       </c>
       <c r="F352" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G352" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="H352" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
@@ -13705,13 +13708,13 @@
         <v>439</v>
       </c>
       <c r="F353" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G353" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="H353" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
@@ -13728,13 +13731,13 @@
         <v>439</v>
       </c>
       <c r="F354" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G354" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="H354" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
@@ -13751,16 +13754,16 @@
         <v>439</v>
       </c>
       <c r="F355" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="G355" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H355" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="I355" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
@@ -13777,16 +13780,16 @@
         <v>439</v>
       </c>
       <c r="F356" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G356" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="H356" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="I356" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
@@ -13803,16 +13806,16 @@
         <v>439</v>
       </c>
       <c r="F357" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="G357" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="H357" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="I357" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
@@ -13829,16 +13832,16 @@
         <v>439</v>
       </c>
       <c r="F358" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="G358" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H358" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="I358" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
@@ -13855,16 +13858,16 @@
         <v>439</v>
       </c>
       <c r="F359" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G359" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H359" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="I359" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
@@ -13881,16 +13884,16 @@
         <v>439</v>
       </c>
       <c r="F360" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="G360" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="H360" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="I360" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
@@ -13907,16 +13910,16 @@
         <v>439</v>
       </c>
       <c r="F361" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="G361" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="H361" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="I361" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
@@ -13936,16 +13939,16 @@
         <v>439</v>
       </c>
       <c r="F362" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="G362" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="H362" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="I362" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
@@ -13962,16 +13965,16 @@
         <v>439</v>
       </c>
       <c r="F363" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="G363" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H363" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="I363" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
@@ -13988,16 +13991,16 @@
         <v>439</v>
       </c>
       <c r="F364" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G364" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H364" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="I364" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
@@ -14014,16 +14017,16 @@
         <v>439</v>
       </c>
       <c r="F365" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="G365" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="H365" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="I365" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
@@ -14040,16 +14043,16 @@
         <v>439</v>
       </c>
       <c r="F366" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="G366" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="H366" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="I366" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
@@ -14066,16 +14069,16 @@
         <v>439</v>
       </c>
       <c r="F367" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="G367" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H367" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="I367" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
@@ -14092,16 +14095,16 @@
         <v>439</v>
       </c>
       <c r="F368" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G368" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="H368" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="I368" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
@@ -14118,16 +14121,16 @@
         <v>439</v>
       </c>
       <c r="F369" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="G369" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="H369" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="I369" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
@@ -14144,16 +14147,16 @@
         <v>439</v>
       </c>
       <c r="F370" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G370" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="H370" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="I370" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
@@ -14170,16 +14173,16 @@
         <v>439</v>
       </c>
       <c r="F371" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="G371" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="H371" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="I371" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
@@ -14196,16 +14199,16 @@
         <v>439</v>
       </c>
       <c r="F372" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G372" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="H372" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="I372" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
@@ -14222,16 +14225,16 @@
         <v>439</v>
       </c>
       <c r="F373" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="G373" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="H373" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="I373" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
@@ -14248,19 +14251,19 @@
         <v>439</v>
       </c>
       <c r="F374" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="G374" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="H374" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="I374" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="J374" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
@@ -14277,19 +14280,19 @@
         <v>439</v>
       </c>
       <c r="F375" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G375" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H375" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="I375" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="J375" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
@@ -14306,19 +14309,19 @@
         <v>439</v>
       </c>
       <c r="F376" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G376" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="H376" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="I376" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="J376" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
@@ -14335,16 +14338,16 @@
         <v>439</v>
       </c>
       <c r="F377" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G377" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="H377" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="I377" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
@@ -14361,16 +14364,16 @@
         <v>439</v>
       </c>
       <c r="F378" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G378" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H378" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="I378" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
@@ -14387,16 +14390,16 @@
         <v>439</v>
       </c>
       <c r="F379" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G379" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H379" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="I379" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
@@ -14413,16 +14416,16 @@
         <v>439</v>
       </c>
       <c r="F380" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G380" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H380" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="I380" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
@@ -14439,16 +14442,16 @@
         <v>439</v>
       </c>
       <c r="F381" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G381" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H381" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="I381" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
@@ -14468,16 +14471,16 @@
         <v>439</v>
       </c>
       <c r="F382" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G382" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="H382" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="I382" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
@@ -14497,16 +14500,16 @@
         <v>439</v>
       </c>
       <c r="F383" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G383" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="H383" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="I383" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
@@ -14526,19 +14529,19 @@
         <v>439</v>
       </c>
       <c r="F384" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G384" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H384" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="I384" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1915</v>
       </c>
@@ -14555,19 +14558,19 @@
         <v>439</v>
       </c>
       <c r="F385" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G385" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="H385" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="I385" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1915</v>
       </c>
@@ -14584,19 +14587,19 @@
         <v>439</v>
       </c>
       <c r="F386" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G386" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="H386" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="I386" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1915</v>
       </c>
@@ -14613,19 +14616,19 @@
         <v>439</v>
       </c>
       <c r="F387" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G387" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="H387" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="I387" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1915</v>
       </c>
@@ -14642,19 +14645,19 @@
         <v>439</v>
       </c>
       <c r="F388" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="G388" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="H388" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="I388" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1915</v>
       </c>
@@ -14671,19 +14674,19 @@
         <v>439</v>
       </c>
       <c r="F389" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G389" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="H389" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="I389" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1915</v>
       </c>
@@ -14700,19 +14703,19 @@
         <v>439</v>
       </c>
       <c r="F390" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="G390" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="H390" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="I390" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1915</v>
       </c>
@@ -14729,19 +14732,19 @@
         <v>439</v>
       </c>
       <c r="F391" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="G391" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="H391" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="I391" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1915</v>
       </c>
@@ -14755,19 +14758,19 @@
         <v>439</v>
       </c>
       <c r="F392" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G392" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="H392" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="I392" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1915</v>
       </c>
@@ -14781,19 +14784,19 @@
         <v>439</v>
       </c>
       <c r="F393" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="G393" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H393" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
       <c r="I393" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1915</v>
       </c>
@@ -14807,19 +14810,19 @@
         <v>439</v>
       </c>
       <c r="F394" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="G394" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="H394" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="I394" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1915</v>
       </c>
@@ -14833,19 +14836,19 @@
         <v>439</v>
       </c>
       <c r="F395" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G395" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="H395" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="I395" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1915</v>
       </c>
@@ -14859,19 +14862,19 @@
         <v>439</v>
       </c>
       <c r="F396" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="G396" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H396" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="I396" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1915</v>
       </c>
@@ -14888,16 +14891,16 @@
         <v>492</v>
       </c>
       <c r="G397" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="H397" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="I397" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1915</v>
       </c>
@@ -14911,25 +14914,25 @@
         <v>439</v>
       </c>
       <c r="F398" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="G398" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="H398" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="I398" t="s">
-        <v>1331</v>
-      </c>
-      <c r="J398" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="K398" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1313</v>
+      </c>
+      <c r="L398" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1915</v>
       </c>
@@ -14946,16 +14949,16 @@
         <v>506</v>
       </c>
       <c r="G399" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H399" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="I399" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1915</v>
       </c>
@@ -14969,19 +14972,19 @@
         <v>439</v>
       </c>
       <c r="F400" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="G400" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H400" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="I400" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1915</v>
       </c>
@@ -14995,25 +14998,25 @@
         <v>439</v>
       </c>
       <c r="F401" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="G401" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="H401" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="I401" t="s">
-        <v>1336</v>
-      </c>
-      <c r="J401" t="s">
-        <v>1194</v>
+        <v>1327</v>
       </c>
       <c r="K401" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1191</v>
+      </c>
+      <c r="L401" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1915</v>
       </c>
@@ -15027,19 +15030,19 @@
         <v>439</v>
       </c>
       <c r="F402" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G402" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="H402" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="I402" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>1915</v>
       </c>
@@ -15053,19 +15056,19 @@
         <v>439</v>
       </c>
       <c r="F403" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="G403" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="H403" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="I403" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1915</v>
       </c>
@@ -15079,19 +15082,19 @@
         <v>439</v>
       </c>
       <c r="F404" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="G404" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="H404" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="I404" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1915</v>
       </c>
@@ -15105,19 +15108,19 @@
         <v>439</v>
       </c>
       <c r="F405" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G405" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="H405" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="I405" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>1915</v>
       </c>
@@ -15131,19 +15134,19 @@
         <v>439</v>
       </c>
       <c r="F406" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="G406" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="H406" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="I406" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>1915</v>
       </c>
@@ -15157,19 +15160,19 @@
         <v>439</v>
       </c>
       <c r="F407" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="G407" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="H407" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="I407" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1915</v>
       </c>
@@ -15183,19 +15186,19 @@
         <v>439</v>
       </c>
       <c r="F408" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G408" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="H408" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="I408" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1915</v>
       </c>
@@ -15209,19 +15212,19 @@
         <v>439</v>
       </c>
       <c r="F409" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="G409" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="H409" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="I409" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>1915</v>
       </c>
@@ -15235,19 +15238,19 @@
         <v>439</v>
       </c>
       <c r="F410" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="G410" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="H410" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="I410" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1915</v>
       </c>
@@ -15261,19 +15264,19 @@
         <v>439</v>
       </c>
       <c r="F411" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G411" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="H411" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="I411" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1915</v>
       </c>
@@ -15287,19 +15290,19 @@
         <v>439</v>
       </c>
       <c r="F412" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="G412" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="H412" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="I412" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>1915</v>
       </c>
@@ -15313,19 +15316,19 @@
         <v>439</v>
       </c>
       <c r="F413" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="G413" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H413" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="I413" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>1915</v>
       </c>
@@ -15339,19 +15342,19 @@
         <v>439</v>
       </c>
       <c r="F414" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="G414" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H414" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="I414" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>1915</v>
       </c>
@@ -15365,19 +15368,19 @@
         <v>439</v>
       </c>
       <c r="F415" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="G415" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="H415" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
       <c r="I415" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>1915</v>
       </c>
@@ -15391,16 +15394,16 @@
         <v>439</v>
       </c>
       <c r="F416" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="G416" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="H416" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
       <c r="I416" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.3">
@@ -15420,16 +15423,16 @@
         <v>439</v>
       </c>
       <c r="F417" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="G417" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="H417" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="I417" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.3">
@@ -15446,16 +15449,16 @@
         <v>439</v>
       </c>
       <c r="F418" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="G418" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H418" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="I418" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.3">
@@ -15472,16 +15475,16 @@
         <v>439</v>
       </c>
       <c r="F419" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="G419" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="H419" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="I419" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.3">
@@ -15498,16 +15501,16 @@
         <v>439</v>
       </c>
       <c r="F420" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="G420" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="H420" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
       <c r="I420" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.3">
@@ -15524,16 +15527,16 @@
         <v>439</v>
       </c>
       <c r="F421" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G421" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H421" t="s">
-        <v>1288</v>
+        <v>1346</v>
       </c>
       <c r="I421" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.3">
@@ -15550,16 +15553,16 @@
         <v>439</v>
       </c>
       <c r="F422" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="G422" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H422" t="s">
-        <v>1288</v>
+        <v>1346</v>
       </c>
       <c r="I422" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.3">
@@ -15576,16 +15579,16 @@
         <v>439</v>
       </c>
       <c r="F423" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="G423" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H423" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="I423" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.3">
@@ -15602,16 +15605,16 @@
         <v>439</v>
       </c>
       <c r="F424" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="G424" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H424" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
       <c r="I424" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.3">
@@ -15628,16 +15631,16 @@
         <v>439</v>
       </c>
       <c r="F425" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="G425" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H425" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="I425" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.3">
@@ -15654,16 +15657,16 @@
         <v>439</v>
       </c>
       <c r="F426" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="G426" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="H426" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="I426" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.3">
@@ -15680,16 +15683,16 @@
         <v>439</v>
       </c>
       <c r="F427" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="G427" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H427" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="I427" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.3">
@@ -15706,16 +15709,16 @@
         <v>439</v>
       </c>
       <c r="F428" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="G428" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H428" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="I428" t="s">
-        <v>1335</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.3">
@@ -15732,16 +15735,16 @@
         <v>439</v>
       </c>
       <c r="F429" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="G429" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="H429" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="I429" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.3">
@@ -15758,16 +15761,16 @@
         <v>439</v>
       </c>
       <c r="F430" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="G430" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="H430" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="I430" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.3">
@@ -15784,16 +15787,16 @@
         <v>439</v>
       </c>
       <c r="F431" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="G431" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="H431" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="I431" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.3">
@@ -15810,16 +15813,16 @@
         <v>439</v>
       </c>
       <c r="F432" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="G432" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="H432" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="I432" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.3">
@@ -15836,16 +15839,16 @@
         <v>439</v>
       </c>
       <c r="F433" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="G433" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="H433" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="I433" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
     </row>
   </sheetData>
